--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Nazwa</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Entropia ze współczynnikiem</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>średnia entropia</t>
   </si>
 </sst>
 </file>
@@ -129,12 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -150,6 +157,1065 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$26:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$26:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>10.740500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.6203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.604799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.572699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.566000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.541600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.5313</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.518800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.5159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.5105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.5083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.500500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.4984</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.4909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.4869</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.4757</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.470599999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.468999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.463699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.460900000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.4575</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.456300000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.453799999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.452500000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.451700000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.4497</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.448600000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.4473</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.4451</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.444699999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.4435</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.442399999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.4422</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.438700000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.4373</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.435499999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.4337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1404-4193-86CE-26958D6E5CD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1691671840"/>
+        <c:axId val="1691667680"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1691671840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1691667680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1691667680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1691671840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,15 +1481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
@@ -481,7 +1547,7 @@
         <v>9.4225519999999996</v>
       </c>
       <c r="I3">
-        <v>8.8493259999999996</v>
+        <v>8.800084</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -507,7 +1573,7 @@
         <v>10.719251</v>
       </c>
       <c r="I4">
-        <v>10.444647</v>
+        <v>10.547815</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -533,7 +1599,7 @@
         <v>11.693301</v>
       </c>
       <c r="I5">
-        <v>11.412131</v>
+        <v>10.633188000000001</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -559,7 +1625,7 @@
         <v>10.056347000000001</v>
       </c>
       <c r="I6">
-        <v>10.096220000000001</v>
+        <v>10.320377000000001</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -585,7 +1651,7 @@
         <v>12.680255000000001</v>
       </c>
       <c r="I7">
-        <v>11.937504000000001</v>
+        <v>12.161030999999999</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -611,7 +1677,7 @@
         <v>9.4946179999999991</v>
       </c>
       <c r="I8">
-        <v>8.7863229999999994</v>
+        <v>9.2468850000000007</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -637,7 +1703,7 @@
         <v>12.352198</v>
       </c>
       <c r="I9">
-        <v>11.684186</v>
+        <v>11.624713</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -663,7 +1729,7 @@
         <v>11.863737</v>
       </c>
       <c r="I10">
-        <v>11.283950000000001</v>
+        <v>11.35665</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -689,7 +1755,7 @@
         <v>11.506192</v>
       </c>
       <c r="I11">
-        <v>9.8520540000000008</v>
+        <v>11.177764</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -715,7 +1781,7 @@
         <v>12.862774</v>
       </c>
       <c r="I12">
-        <v>12.685826</v>
+        <v>11.386552999999999</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -741,7 +1807,7 @@
         <v>11.164281000000001</v>
       </c>
       <c r="I13">
-        <v>10.622207</v>
+        <v>10.227458</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -767,7 +1833,7 @@
         <v>9.3615110000000001</v>
       </c>
       <c r="I14">
-        <v>9.2676870000000005</v>
+        <v>8.2622079999999993</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -793,7 +1859,7 @@
         <v>12.941407999999999</v>
       </c>
       <c r="I15">
-        <v>12.347141000000001</v>
+        <v>12.514480000000001</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -819,7 +1885,7 @@
         <v>12.970791999999999</v>
       </c>
       <c r="I16">
-        <v>12.644332</v>
+        <v>11.942791</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -845,7 +1911,7 @@
         <v>10.395452000000001</v>
       </c>
       <c r="I17">
-        <v>9.8878529999999998</v>
+        <v>9.6323019999999993</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -871,7 +1937,7 @@
         <v>11.842294000000001</v>
       </c>
       <c r="I18">
-        <v>12.812226000000001</v>
+        <v>12.013982</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -900,11 +1966,324 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" si="0"/>
-        <v>10.913350812500001</v>
+        <v>10.740517562499999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10.740500000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10.6203</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10.604799999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10.572699999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10.566000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10.541600000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <v>10.5313</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>10.518800000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10.5159</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10.5105</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10.5083</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10.500500000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10.4984</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10.4909</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10.4869</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10.4757</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10.470599999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>21</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10.468999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>22</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10.463699999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10.460900000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10.4575</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>25</v>
+      </c>
+      <c r="C48" s="2">
+        <v>10.456300000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10.453799999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>27</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10.452500000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10.451700000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>29</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10.4497</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>30</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10.448600000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>31</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10.4473</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>32</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10.4451</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>33</v>
+      </c>
+      <c r="C56" s="2">
+        <v>10.444699999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>34</v>
+      </c>
+      <c r="C57" s="2">
+        <v>10.4435</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>35</v>
+      </c>
+      <c r="C58" s="2">
+        <v>10.442399999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>36</v>
+      </c>
+      <c r="C59" s="2">
+        <v>10.4422</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>37</v>
+      </c>
+      <c r="C60" s="2">
+        <v>10.438700000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>38</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10.4373</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>39</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10.435499999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>40</v>
+      </c>
+      <c r="C63" s="2">
+        <v>10.4337</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Nazwa</t>
   </si>
@@ -30,15 +30,9 @@
     <t>Energia</t>
   </si>
   <si>
-    <t>Energia po skanowaniu</t>
-  </si>
-  <si>
     <t>Entropia</t>
   </si>
   <si>
-    <t>Entropia po skanowaniu</t>
-  </si>
-  <si>
     <t>ATrain.wav</t>
   </si>
   <si>
@@ -93,13 +87,37 @@
     <t>Średnia</t>
   </si>
   <si>
-    <t>Entropia ze współczynnikiem</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
     <t>średnia entropia</t>
+  </si>
+  <si>
+    <t>Energia po kodowaniu róznicowym</t>
+  </si>
+  <si>
+    <t>Entropia po kodowaniu różnicowym</t>
+  </si>
+  <si>
+    <t>Entropia po kodowaniu predykcyjnym MMSE r = 3</t>
+  </si>
+  <si>
+    <t>Entropia po kodowaniu predykcyjnym MMSE r = 40</t>
+  </si>
+  <si>
+    <t>kanał lewy r = 3</t>
+  </si>
+  <si>
+    <t>kanał lewy r = 10</t>
+  </si>
+  <si>
+    <t>kanał prawy r = 3</t>
+  </si>
+  <si>
+    <t>kanał prawy r = 10</t>
+  </si>
+  <si>
+    <t>Suma współczynników predykcji ATrain</t>
   </si>
 </sst>
 </file>
@@ -135,13 +153,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1481,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I63"/>
+  <dimension ref="B2:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,15 +1513,16 @@
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" customWidth="1"/>
+    <col min="9" max="9" width="45" customWidth="1"/>
+    <col min="10" max="10" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1512,24 +1534,27 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>1688526</v>
@@ -1549,13 +1574,16 @@
       <c r="I3">
         <v>8.800084</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>8.3484789999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>1378518</v>
@@ -1575,13 +1603,16 @@
       <c r="I4">
         <v>10.547815</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>10.321882</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1063080</v>
@@ -1601,13 +1632,16 @@
       <c r="I5">
         <v>10.633188000000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>10.429010999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>1652746</v>
@@ -1627,13 +1661,16 @@
       <c r="I6">
         <v>10.320377000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>10.249891999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>1764588</v>
@@ -1653,13 +1690,16 @@
       <c r="I7">
         <v>12.161030999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>11.884411</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>1692318</v>
@@ -1679,13 +1719,16 @@
       <c r="I8">
         <v>9.2468850000000007</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>8.7656019999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1764384</v>
@@ -1705,13 +1748,16 @@
       <c r="I9">
         <v>11.624713</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>11.595592999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1765496</v>
@@ -1731,13 +1777,16 @@
       <c r="I10">
         <v>11.35665</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>10.951558</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1749206</v>
@@ -1757,13 +1806,16 @@
       <c r="I11">
         <v>11.177764</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>10.908531</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1756156</v>
@@ -1783,13 +1835,16 @@
       <c r="I12">
         <v>11.386552999999999</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>10.881966</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1540674</v>
@@ -1809,13 +1864,16 @@
       <c r="I13">
         <v>10.227458</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>9.8779439999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1583468</v>
@@ -1835,13 +1893,16 @@
       <c r="I14">
         <v>8.2622079999999993</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>7.7674969999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1604472</v>
@@ -1861,13 +1922,16 @@
       <c r="I15">
         <v>12.514480000000001</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>12.207444000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>1703930</v>
@@ -1887,13 +1951,16 @@
       <c r="I16">
         <v>11.942791</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>11.728142999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>1751498</v>
@@ -1913,13 +1980,16 @@
       <c r="I17">
         <v>9.6323019999999993</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>9.2193959999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>1047684</v>
@@ -1939,10 +2009,13 @@
       <c r="I18">
         <v>12.013982</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>11.802412</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2">
         <f>SUM(D3:D18)/16</f>
@@ -1968,16 +2041,20 @@
         <f t="shared" si="0"/>
         <v>10.740517562499999</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2">
+        <f>SUM(J3:J18)/16</f>
+        <v>10.4337350625</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>3</v>
       </c>
@@ -1985,47 +2062,74 @@
         <v>10.740500000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>4</v>
       </c>
       <c r="C27" s="2">
         <v>10.6203</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>5</v>
       </c>
       <c r="C28" s="2">
         <v>10.604799999999999</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28">
+        <v>0.97889999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>6</v>
       </c>
       <c r="C29" s="2">
         <v>10.572699999999999</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29">
+        <v>0.97489999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>7</v>
       </c>
       <c r="C30" s="2">
         <v>10.566000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <v>0.95740000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>8</v>
       </c>
       <c r="C31" s="2">
         <v>10.541600000000001</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31">
+        <v>0.93220000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>9</v>
       </c>

--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Nazwa</t>
   </si>
@@ -119,11 +119,17 @@
   <si>
     <t>Suma współczynników predykcji ATrain</t>
   </si>
+  <si>
+    <t>b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,6 +167,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -342,121 +358,121 @@
             <c:numRef>
               <c:f>Arkusz1!$C$26:$C$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>10.740500000000001</c:v>
+                  <c:v>11.010300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.6203</c:v>
+                  <c:v>10.9178</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.604799999999999</c:v>
+                  <c:v>10.908200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.572699999999999</c:v>
+                  <c:v>10.882199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.566000000000001</c:v>
+                  <c:v>10.875500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.541600000000001</c:v>
+                  <c:v>10.855700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.5313</c:v>
+                  <c:v>10.845800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.518800000000001</c:v>
+                  <c:v>10.833399999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.5159</c:v>
+                  <c:v>10.8314</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.5105</c:v>
+                  <c:v>10.8263</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.5083</c:v>
+                  <c:v>10.8256</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.500500000000001</c:v>
+                  <c:v>10.8187</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.4984</c:v>
+                  <c:v>10.819000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.4909</c:v>
+                  <c:v>10.811299999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.4869</c:v>
+                  <c:v>10.806900000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.48</c:v>
+                  <c:v>10.799799999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.4757</c:v>
+                  <c:v>10.796799999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.470599999999999</c:v>
+                  <c:v>10.790699999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.468999999999999</c:v>
+                  <c:v>10.789199999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.463699999999999</c:v>
+                  <c:v>10.7844</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.460900000000001</c:v>
+                  <c:v>10.7819</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.4575</c:v>
+                  <c:v>10.778700000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.456300000000001</c:v>
+                  <c:v>10.777200000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.453799999999999</c:v>
+                  <c:v>10.7758</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10.452500000000001</c:v>
+                  <c:v>10.7742</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.451700000000001</c:v>
+                  <c:v>10.773199999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10.4497</c:v>
+                  <c:v>10.7713</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.448600000000001</c:v>
+                  <c:v>10.771100000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.4473</c:v>
+                  <c:v>10.769500000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.4451</c:v>
+                  <c:v>10.767300000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.444699999999999</c:v>
+                  <c:v>10.7666</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.4435</c:v>
+                  <c:v>10.7659</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.442399999999999</c:v>
+                  <c:v>10.7646</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.4422</c:v>
+                  <c:v>10.764799999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.438700000000001</c:v>
+                  <c:v>10.7613</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10.4373</c:v>
+                  <c:v>10.760300000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.435499999999999</c:v>
+                  <c:v>10.7582</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.4337</c:v>
+                  <c:v>10.7569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,6 +578,310 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1691671840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$70:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$70:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>22.3125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.5625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.3125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.8125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.6875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.6875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.4375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.3125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.1875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECD6-4B6D-8A72-08991530A0AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="749766943"/>
+        <c:axId val="749770271"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="749766943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -599,7 +919,69 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691671840"/>
+        <c:crossAx val="749770271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="749770271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="749766943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -688,7 +1070,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1231,6 +2169,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1502,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J63"/>
+  <dimension ref="B2:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,10 +2540,10 @@
         <v>9.4225519999999996</v>
       </c>
       <c r="I3">
-        <v>8.800084</v>
+        <v>8.9062219999999996</v>
       </c>
       <c r="J3">
-        <v>8.3484789999999993</v>
+        <v>8.4723749999999995</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -1601,10 +2569,10 @@
         <v>10.719251</v>
       </c>
       <c r="I4">
-        <v>10.547815</v>
+        <v>10.750140999999999</v>
       </c>
       <c r="J4">
-        <v>10.321882</v>
+        <v>10.547946</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -1630,10 +2598,10 @@
         <v>11.693301</v>
       </c>
       <c r="I5">
-        <v>10.633188000000001</v>
+        <v>10.930071</v>
       </c>
       <c r="J5">
-        <v>10.429010999999999</v>
+        <v>10.761006999999999</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1659,10 +2627,10 @@
         <v>10.056347000000001</v>
       </c>
       <c r="I6">
-        <v>10.320377000000001</v>
+        <v>10.532157</v>
       </c>
       <c r="J6">
-        <v>10.249891999999999</v>
+        <v>10.500842</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -1688,10 +2656,10 @@
         <v>12.680255000000001</v>
       </c>
       <c r="I7">
-        <v>12.161030999999999</v>
+        <v>12.506854000000001</v>
       </c>
       <c r="J7">
-        <v>11.884411</v>
+        <v>12.269933</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1717,10 +2685,10 @@
         <v>9.4946179999999991</v>
       </c>
       <c r="I8">
-        <v>9.2468850000000007</v>
+        <v>9.4285870000000003</v>
       </c>
       <c r="J8">
-        <v>8.7656019999999994</v>
+        <v>9.0887399999999996</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -1746,10 +2714,10 @@
         <v>12.352198</v>
       </c>
       <c r="I9">
-        <v>11.624713</v>
+        <v>11.939889000000001</v>
       </c>
       <c r="J9">
-        <v>11.595592999999999</v>
+        <v>11.911469</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1775,10 +2743,10 @@
         <v>11.863737</v>
       </c>
       <c r="I10">
-        <v>11.35665</v>
+        <v>11.672295</v>
       </c>
       <c r="J10">
-        <v>10.951558</v>
+        <v>11.416036999999999</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -1804,10 +2772,10 @@
         <v>11.506192</v>
       </c>
       <c r="I11">
-        <v>11.177764</v>
+        <v>11.568866</v>
       </c>
       <c r="J11">
-        <v>10.908531</v>
+        <v>11.286799999999999</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -1833,10 +2801,10 @@
         <v>12.862774</v>
       </c>
       <c r="I12">
-        <v>11.386552999999999</v>
+        <v>11.821592000000001</v>
       </c>
       <c r="J12">
-        <v>10.881966</v>
+        <v>11.376994</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1862,10 +2830,10 @@
         <v>11.164281000000001</v>
       </c>
       <c r="I13">
-        <v>10.227458</v>
+        <v>10.677783</v>
       </c>
       <c r="J13">
-        <v>9.8779439999999994</v>
+        <v>10.308141000000001</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1891,10 +2859,10 @@
         <v>9.3615110000000001</v>
       </c>
       <c r="I14">
-        <v>8.2622079999999993</v>
+        <v>8.5320040000000006</v>
       </c>
       <c r="J14">
-        <v>7.7674969999999997</v>
+        <v>8.1697170000000003</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -1920,10 +2888,10 @@
         <v>12.941407999999999</v>
       </c>
       <c r="I15">
-        <v>12.514480000000001</v>
+        <v>12.744911999999999</v>
       </c>
       <c r="J15">
-        <v>12.207444000000001</v>
+        <v>12.482144</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1949,10 +2917,10 @@
         <v>12.970791999999999</v>
       </c>
       <c r="I16">
-        <v>11.942791</v>
+        <v>12.374375000000001</v>
       </c>
       <c r="J16">
-        <v>11.728142999999999</v>
+        <v>12.155747</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1978,10 +2946,10 @@
         <v>10.395452000000001</v>
       </c>
       <c r="I17">
-        <v>9.6323019999999993</v>
+        <v>10.157716000000001</v>
       </c>
       <c r="J17">
-        <v>9.2193959999999997</v>
+        <v>9.8352620000000002</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -2007,10 +2975,10 @@
         <v>11.842294000000001</v>
       </c>
       <c r="I18">
-        <v>12.013982</v>
+        <v>11.622075000000001</v>
       </c>
       <c r="J18">
-        <v>11.802412</v>
+        <v>11.527256</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -2039,11 +3007,11 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" si="0"/>
-        <v>10.740517562499999</v>
+        <v>11.010346187499998</v>
       </c>
       <c r="J19" s="2">
         <f>SUM(J3:J18)/16</f>
-        <v>10.4337350625</v>
+        <v>10.756900625</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -2058,16 +3026,16 @@
       <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="C26" s="2">
-        <v>10.740500000000001</v>
+      <c r="C26" s="5">
+        <v>11.010300000000001</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>4</v>
       </c>
-      <c r="C27" s="2">
-        <v>10.6203</v>
+      <c r="C27" s="5">
+        <v>10.9178</v>
       </c>
       <c r="J27" t="s">
         <v>32</v>
@@ -2077,8 +3045,8 @@
       <c r="B28" s="1">
         <v>5</v>
       </c>
-      <c r="C28" s="2">
-        <v>10.604799999999999</v>
+      <c r="C28" s="5">
+        <v>10.908200000000001</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>28</v>
@@ -2091,8 +3059,8 @@
       <c r="B29" s="1">
         <v>6</v>
       </c>
-      <c r="C29" s="2">
-        <v>10.572699999999999</v>
+      <c r="C29" s="5">
+        <v>10.882199999999999</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>29</v>
@@ -2105,8 +3073,8 @@
       <c r="B30" s="1">
         <v>7</v>
       </c>
-      <c r="C30" s="2">
-        <v>10.566000000000001</v>
+      <c r="C30" s="5">
+        <v>10.875500000000001</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>30</v>
@@ -2119,8 +3087,8 @@
       <c r="B31" s="1">
         <v>8</v>
       </c>
-      <c r="C31" s="2">
-        <v>10.541600000000001</v>
+      <c r="C31" s="5">
+        <v>10.855700000000001</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>31</v>
@@ -2133,256 +3101,432 @@
       <c r="B32" s="1">
         <v>9</v>
       </c>
-      <c r="C32" s="2">
-        <v>10.5313</v>
+      <c r="C32" s="5">
+        <v>10.845800000000001</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>10</v>
       </c>
-      <c r="C33" s="2">
-        <v>10.518800000000001</v>
+      <c r="C33" s="5">
+        <v>10.833399999999999</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>11</v>
       </c>
-      <c r="C34" s="2">
-        <v>10.5159</v>
+      <c r="C34" s="5">
+        <v>10.8314</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>12</v>
       </c>
-      <c r="C35" s="2">
-        <v>10.5105</v>
+      <c r="C35" s="5">
+        <v>10.8263</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>13</v>
       </c>
-      <c r="C36" s="2">
-        <v>10.5083</v>
+      <c r="C36" s="5">
+        <v>10.8256</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>14</v>
       </c>
-      <c r="C37" s="2">
-        <v>10.500500000000001</v>
+      <c r="C37" s="5">
+        <v>10.8187</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>15</v>
       </c>
-      <c r="C38" s="2">
-        <v>10.4984</v>
+      <c r="C38" s="5">
+        <v>10.819000000000001</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>16</v>
       </c>
-      <c r="C39" s="2">
-        <v>10.4909</v>
+      <c r="C39" s="5">
+        <v>10.811299999999999</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>17</v>
       </c>
-      <c r="C40" s="2">
-        <v>10.4869</v>
+      <c r="C40" s="5">
+        <v>10.806900000000001</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>18</v>
       </c>
-      <c r="C41" s="2">
-        <v>10.48</v>
+      <c r="C41" s="5">
+        <v>10.799799999999999</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>19</v>
       </c>
-      <c r="C42" s="2">
-        <v>10.4757</v>
+      <c r="C42" s="5">
+        <v>10.796799999999999</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>20</v>
       </c>
-      <c r="C43" s="2">
-        <v>10.470599999999999</v>
+      <c r="C43" s="5">
+        <v>10.790699999999999</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>21</v>
       </c>
-      <c r="C44" s="2">
-        <v>10.468999999999999</v>
+      <c r="C44" s="5">
+        <v>10.789199999999999</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>22</v>
       </c>
-      <c r="C45" s="2">
-        <v>10.463699999999999</v>
+      <c r="C45" s="5">
+        <v>10.7844</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>23</v>
       </c>
-      <c r="C46" s="2">
-        <v>10.460900000000001</v>
+      <c r="C46" s="5">
+        <v>10.7819</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>24</v>
       </c>
-      <c r="C47" s="2">
-        <v>10.4575</v>
+      <c r="C47" s="5">
+        <v>10.778700000000001</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>25</v>
       </c>
-      <c r="C48" s="2">
-        <v>10.456300000000001</v>
+      <c r="C48" s="5">
+        <v>10.777200000000001</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>26</v>
       </c>
-      <c r="C49" s="2">
-        <v>10.453799999999999</v>
+      <c r="C49" s="5">
+        <v>10.7758</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>27</v>
       </c>
-      <c r="C50" s="2">
-        <v>10.452500000000001</v>
+      <c r="C50" s="5">
+        <v>10.7742</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>28</v>
       </c>
-      <c r="C51" s="2">
-        <v>10.451700000000001</v>
+      <c r="C51" s="5">
+        <v>10.773199999999999</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>29</v>
       </c>
-      <c r="C52" s="2">
-        <v>10.4497</v>
+      <c r="C52" s="5">
+        <v>10.7713</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>30</v>
       </c>
-      <c r="C53" s="2">
-        <v>10.448600000000001</v>
+      <c r="C53" s="5">
+        <v>10.771100000000001</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>31</v>
       </c>
-      <c r="C54" s="2">
-        <v>10.4473</v>
+      <c r="C54" s="5">
+        <v>10.769500000000001</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>32</v>
       </c>
-      <c r="C55" s="2">
-        <v>10.4451</v>
+      <c r="C55" s="5">
+        <v>10.767300000000001</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>33</v>
       </c>
-      <c r="C56" s="2">
-        <v>10.444699999999999</v>
+      <c r="C56" s="5">
+        <v>10.7666</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>34</v>
       </c>
-      <c r="C57" s="2">
-        <v>10.4435</v>
+      <c r="C57" s="5">
+        <v>10.7659</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>35</v>
       </c>
-      <c r="C58" s="2">
-        <v>10.442399999999999</v>
+      <c r="C58" s="5">
+        <v>10.7646</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>36</v>
       </c>
-      <c r="C59" s="2">
-        <v>10.4422</v>
+      <c r="C59" s="5">
+        <v>10.764799999999999</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>37</v>
       </c>
-      <c r="C60" s="2">
-        <v>10.438700000000001</v>
+      <c r="C60" s="5">
+        <v>10.7613</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>38</v>
       </c>
-      <c r="C61" s="2">
-        <v>10.4373</v>
+      <c r="C61" s="5">
+        <v>10.760300000000001</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>39</v>
       </c>
-      <c r="C62" s="2">
-        <v>10.435499999999999</v>
+      <c r="C62" s="5">
+        <v>10.7582</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>40</v>
       </c>
-      <c r="C63" s="2">
-        <v>10.4337</v>
+      <c r="C63" s="5">
+        <v>10.7569</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="6">
+        <v>2</v>
+      </c>
+      <c r="C70" s="8">
+        <v>22.3125</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>19.5625</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>18.3125</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>17.3125</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>40</v>
+      </c>
+      <c r="C74">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>50</v>
+      </c>
+      <c r="C75">
+        <v>16.375</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>60</v>
+      </c>
+      <c r="C76">
+        <v>16.0625</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>70</v>
+      </c>
+      <c r="C77">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>80</v>
+      </c>
+      <c r="C78">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>90</v>
+      </c>
+      <c r="C79">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>100</v>
+      </c>
+      <c r="C80">
+        <v>15.125</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>110</v>
+      </c>
+      <c r="C81">
+        <v>14.8125</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>120</v>
+      </c>
+      <c r="C82">
+        <v>14.6875</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>130</v>
+      </c>
+      <c r="C83">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>140</v>
+      </c>
+      <c r="C84">
+        <v>14.6875</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>150</v>
+      </c>
+      <c r="C85">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>160</v>
+      </c>
+      <c r="C86">
+        <v>14.4375</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>170</v>
+      </c>
+      <c r="C87">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>180</v>
+      </c>
+      <c r="C88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>190</v>
+      </c>
+      <c r="C89">
+        <v>14.3125</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>200</v>
+      </c>
+      <c r="C90">
+        <v>14.1875</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -664,413 +664,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$B$70:$B$90</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$C$70:$C$90</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>22.3125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.5625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.3125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.3125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.8125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.6875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.6875</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.4375</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14.25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.3125</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.1875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ECD6-4B6D-8A72-08991530A0AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="749766943"/>
-        <c:axId val="749770271"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="749766943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="749770271"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="749770271"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="749766943"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1626,522 +1220,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2169,36 +1247,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Wykres 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2472,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,13 +171,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +658,456 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$70:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$70:$C$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>9.1875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.4375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.1875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.9375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.1875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.0625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.5625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.6875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.8125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59D0-43ED-B715-506E2E579F92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="106414239"/>
+        <c:axId val="106429215"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="106414239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106429215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="106429215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106414239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1220,6 +1663,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1247,6 +2206,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1518,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J90"/>
+  <dimension ref="B2:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,179 +3391,330 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="6">
-        <v>2</v>
-      </c>
-      <c r="C70" s="8">
-        <v>22.3125</v>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>9.1875</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C71">
-        <v>19.5625</v>
+        <v>9.4375</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C72">
-        <v>18.3125</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C73">
-        <v>17.3125</v>
+        <v>9.1875</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C74">
-        <v>16.75</v>
+        <v>9.9375</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C75">
-        <v>16.375</v>
+        <v>9.6875</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C76">
-        <v>16.0625</v>
+        <v>10.875</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C77">
-        <v>15.75</v>
+        <v>10.0625</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C78">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C79">
-        <v>15.25</v>
+        <v>10.4375</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C80">
-        <v>15.125</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C81">
-        <v>14.8125</v>
+        <v>11.1875</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C82">
-        <v>14.6875</v>
+        <v>11.375</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C83">
-        <v>14.75</v>
+        <v>11.9375</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C84">
-        <v>14.6875</v>
+        <v>11.375</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C85">
-        <v>14.25</v>
+        <v>11.1875</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C86">
-        <v>14.4375</v>
+        <v>11.0625</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C87">
-        <v>14.25</v>
+        <v>11.5625</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>180</v>
-      </c>
-      <c r="C88">
-        <v>14</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89">
-        <v>190</v>
-      </c>
-      <c r="C89">
-        <v>14.3125</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>200</v>
-      </c>
-      <c r="C90">
-        <v>14.1875</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>260</v>
+      </c>
+      <c r="C95">
+        <v>11.875</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>270</v>
+      </c>
+      <c r="C96">
+        <v>11.875</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>280</v>
+      </c>
+      <c r="C97">
+        <v>11.6875</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>290</v>
+      </c>
+      <c r="C98">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>300</v>
+      </c>
+      <c r="C99">
+        <v>11.8125</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -861,6 +861,27 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>11.5625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.1875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.6875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.8125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.8125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>11.875</c:v>
@@ -2507,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J119"/>
+  <dimension ref="B2:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,36 +3567,57 @@
       <c r="B88">
         <v>190</v>
       </c>
+      <c r="C88">
+        <v>11.1875</v>
+      </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>200</v>
       </c>
+      <c r="C89">
+        <v>11.6875</v>
+      </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>210</v>
       </c>
+      <c r="C90">
+        <v>11.8125</v>
+      </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>220</v>
       </c>
+      <c r="C91">
+        <v>11.75</v>
+      </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>230</v>
       </c>
+      <c r="C92">
+        <v>10.875</v>
+      </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>240</v>
       </c>
+      <c r="C93">
+        <v>11.8125</v>
+      </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>250</v>
       </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95">
@@ -3621,11 +3663,17 @@
       <c r="B100">
         <v>310</v>
       </c>
+      <c r="C100">
+        <v>11.875</v>
+      </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>320</v>
       </c>
+      <c r="C101">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102">
@@ -3636,16 +3684,25 @@
       <c r="B103">
         <v>340</v>
       </c>
+      <c r="C103">
+        <v>11.9375</v>
+      </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>350</v>
       </c>
+      <c r="C104">
+        <v>11.75</v>
+      </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>360</v>
       </c>
+      <c r="C105">
+        <v>11.9375</v>
+      </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106">
@@ -3661,11 +3718,17 @@
       <c r="B108">
         <v>390</v>
       </c>
+      <c r="C108">
+        <v>12.375</v>
+      </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>400</v>
       </c>
+      <c r="C109">
+        <v>12.25</v>
+      </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110">
@@ -3715,6 +3778,56 @@
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Nazwa</t>
   </si>
@@ -122,6 +122,15 @@
   <si>
     <t>b</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>minLsr</t>
+  </si>
+  <si>
+    <t>&lt;= minimum</t>
+  </si>
 </sst>
 </file>
 
@@ -159,13 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2528,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J129"/>
+  <dimension ref="A2:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,7 +3084,7 @@
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3084,7 +3092,7 @@
       <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>11.010300000000001</v>
       </c>
     </row>
@@ -3092,7 +3100,7 @@
       <c r="B27" s="1">
         <v>4</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>10.9178</v>
       </c>
       <c r="J27" t="s">
@@ -3103,10 +3111,10 @@
       <c r="B28" s="1">
         <v>5</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>10.908200000000001</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J28">
@@ -3117,10 +3125,10 @@
       <c r="B29" s="1">
         <v>6</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>10.882199999999999</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J29">
@@ -3131,10 +3139,10 @@
       <c r="B30" s="1">
         <v>7</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>10.875500000000001</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J30">
@@ -3145,10 +3153,10 @@
       <c r="B31" s="1">
         <v>8</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>10.855700000000001</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J31">
@@ -3159,7 +3167,7 @@
       <c r="B32" s="1">
         <v>9</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>10.845800000000001</v>
       </c>
     </row>
@@ -3167,7 +3175,7 @@
       <c r="B33" s="1">
         <v>10</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>10.833399999999999</v>
       </c>
     </row>
@@ -3175,7 +3183,7 @@
       <c r="B34" s="1">
         <v>11</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>10.8314</v>
       </c>
     </row>
@@ -3183,7 +3191,7 @@
       <c r="B35" s="1">
         <v>12</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>10.8263</v>
       </c>
     </row>
@@ -3191,7 +3199,7 @@
       <c r="B36" s="1">
         <v>13</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>10.8256</v>
       </c>
     </row>
@@ -3199,7 +3207,7 @@
       <c r="B37" s="1">
         <v>14</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>10.8187</v>
       </c>
     </row>
@@ -3207,7 +3215,7 @@
       <c r="B38" s="1">
         <v>15</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>10.819000000000001</v>
       </c>
     </row>
@@ -3215,7 +3223,7 @@
       <c r="B39" s="1">
         <v>16</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>10.811299999999999</v>
       </c>
     </row>
@@ -3223,7 +3231,7 @@
       <c r="B40" s="1">
         <v>17</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>10.806900000000001</v>
       </c>
     </row>
@@ -3231,7 +3239,7 @@
       <c r="B41" s="1">
         <v>18</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>10.799799999999999</v>
       </c>
     </row>
@@ -3239,7 +3247,7 @@
       <c r="B42" s="1">
         <v>19</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>10.796799999999999</v>
       </c>
     </row>
@@ -3247,7 +3255,7 @@
       <c r="B43" s="1">
         <v>20</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>10.790699999999999</v>
       </c>
     </row>
@@ -3255,7 +3263,7 @@
       <c r="B44" s="1">
         <v>21</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>10.789199999999999</v>
       </c>
     </row>
@@ -3263,7 +3271,7 @@
       <c r="B45" s="1">
         <v>22</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>10.7844</v>
       </c>
     </row>
@@ -3271,7 +3279,7 @@
       <c r="B46" s="1">
         <v>23</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>10.7819</v>
       </c>
     </row>
@@ -3279,7 +3287,7 @@
       <c r="B47" s="1">
         <v>24</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>10.778700000000001</v>
       </c>
     </row>
@@ -3287,7 +3295,7 @@
       <c r="B48" s="1">
         <v>25</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>10.777200000000001</v>
       </c>
     </row>
@@ -3295,7 +3303,7 @@
       <c r="B49" s="1">
         <v>26</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>10.7758</v>
       </c>
     </row>
@@ -3303,7 +3311,7 @@
       <c r="B50" s="1">
         <v>27</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>10.7742</v>
       </c>
     </row>
@@ -3311,7 +3319,7 @@
       <c r="B51" s="1">
         <v>28</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>10.773199999999999</v>
       </c>
     </row>
@@ -3319,7 +3327,7 @@
       <c r="B52" s="1">
         <v>29</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>10.7713</v>
       </c>
     </row>
@@ -3327,7 +3335,7 @@
       <c r="B53" s="1">
         <v>30</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>10.771100000000001</v>
       </c>
     </row>
@@ -3335,7 +3343,7 @@
       <c r="B54" s="1">
         <v>31</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>10.769500000000001</v>
       </c>
     </row>
@@ -3343,7 +3351,7 @@
       <c r="B55" s="1">
         <v>32</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>10.767300000000001</v>
       </c>
     </row>
@@ -3351,7 +3359,7 @@
       <c r="B56" s="1">
         <v>33</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>10.7666</v>
       </c>
     </row>
@@ -3359,7 +3367,7 @@
       <c r="B57" s="1">
         <v>34</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>10.7659</v>
       </c>
     </row>
@@ -3367,7 +3375,7 @@
       <c r="B58" s="1">
         <v>35</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>10.7646</v>
       </c>
     </row>
@@ -3375,7 +3383,7 @@
       <c r="B59" s="1">
         <v>36</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>10.764799999999999</v>
       </c>
     </row>
@@ -3383,7 +3391,7 @@
       <c r="B60" s="1">
         <v>37</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>10.7613</v>
       </c>
     </row>
@@ -3391,7 +3399,7 @@
       <c r="B61" s="1">
         <v>38</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>10.760300000000001</v>
       </c>
     </row>
@@ -3399,7 +3407,7 @@
       <c r="B62" s="1">
         <v>39</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>10.7582</v>
       </c>
     </row>
@@ -3407,20 +3415,20 @@
       <c r="B63" s="1">
         <v>40</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>10.7569</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70">
+      <c r="B70" s="5">
         <v>10</v>
       </c>
       <c r="C70">
@@ -3428,7 +3436,7 @@
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71">
+      <c r="B71" s="5">
         <v>20</v>
       </c>
       <c r="C71">
@@ -3436,7 +3444,7 @@
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72">
+      <c r="B72" s="5">
         <v>30</v>
       </c>
       <c r="C72">
@@ -3444,7 +3452,7 @@
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73">
+      <c r="B73" s="5">
         <v>40</v>
       </c>
       <c r="C73">
@@ -3452,7 +3460,7 @@
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74">
+      <c r="B74" s="5">
         <v>50</v>
       </c>
       <c r="C74">
@@ -3460,7 +3468,7 @@
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75">
+      <c r="B75" s="5">
         <v>60</v>
       </c>
       <c r="C75">
@@ -3468,7 +3476,7 @@
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76">
+      <c r="B76" s="5">
         <v>70</v>
       </c>
       <c r="C76">
@@ -3476,7 +3484,7 @@
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77">
+      <c r="B77" s="5">
         <v>80</v>
       </c>
       <c r="C77">
@@ -3484,7 +3492,7 @@
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78">
+      <c r="B78" s="5">
         <v>90</v>
       </c>
       <c r="C78">
@@ -3492,7 +3500,7 @@
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79">
+      <c r="B79" s="5">
         <v>100</v>
       </c>
       <c r="C79">
@@ -3500,7 +3508,7 @@
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80">
+      <c r="B80" s="5">
         <v>110</v>
       </c>
       <c r="C80">
@@ -3508,7 +3516,7 @@
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81">
+      <c r="B81" s="5">
         <v>120</v>
       </c>
       <c r="C81">
@@ -3516,7 +3524,7 @@
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82">
+      <c r="B82" s="5">
         <v>130</v>
       </c>
       <c r="C82">
@@ -3524,7 +3532,7 @@
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83">
+      <c r="B83" s="5">
         <v>140</v>
       </c>
       <c r="C83">
@@ -3532,7 +3540,7 @@
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84">
+      <c r="B84" s="5">
         <v>150</v>
       </c>
       <c r="C84">
@@ -3540,7 +3548,7 @@
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85">
+      <c r="B85" s="5">
         <v>160</v>
       </c>
       <c r="C85">
@@ -3548,7 +3556,7 @@
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86">
+      <c r="B86" s="5">
         <v>170</v>
       </c>
       <c r="C86">
@@ -3556,7 +3564,7 @@
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87">
+      <c r="B87" s="5">
         <v>180</v>
       </c>
       <c r="C87">
@@ -3564,7 +3572,7 @@
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88">
+      <c r="B88" s="5">
         <v>190</v>
       </c>
       <c r="C88">
@@ -3572,7 +3580,7 @@
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89">
+      <c r="B89" s="5">
         <v>200</v>
       </c>
       <c r="C89">
@@ -3580,7 +3588,7 @@
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90">
+      <c r="B90" s="5">
         <v>210</v>
       </c>
       <c r="C90">
@@ -3588,7 +3596,7 @@
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91">
+      <c r="B91" s="5">
         <v>220</v>
       </c>
       <c r="C91">
@@ -3596,7 +3604,7 @@
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92">
+      <c r="B92" s="5">
         <v>230</v>
       </c>
       <c r="C92">
@@ -3604,7 +3612,7 @@
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93">
+      <c r="B93" s="5">
         <v>240</v>
       </c>
       <c r="C93">
@@ -3612,7 +3620,7 @@
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94">
+      <c r="B94" s="5">
         <v>250</v>
       </c>
       <c r="C94">
@@ -3620,7 +3628,7 @@
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95">
+      <c r="B95" s="5">
         <v>260</v>
       </c>
       <c r="C95">
@@ -3628,7 +3636,7 @@
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96">
+      <c r="B96" s="5">
         <v>270</v>
       </c>
       <c r="C96">
@@ -3636,7 +3644,7 @@
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97">
+      <c r="B97" s="5">
         <v>280</v>
       </c>
       <c r="C97">
@@ -3644,7 +3652,7 @@
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98">
+      <c r="B98" s="5">
         <v>290</v>
       </c>
       <c r="C98">
@@ -3652,7 +3660,7 @@
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99">
+      <c r="B99" s="5">
         <v>300</v>
       </c>
       <c r="C99">
@@ -3660,7 +3668,7 @@
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100">
+      <c r="B100" s="5">
         <v>310</v>
       </c>
       <c r="C100">
@@ -3668,7 +3676,7 @@
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101">
+      <c r="B101" s="5">
         <v>320</v>
       </c>
       <c r="C101">
@@ -3676,12 +3684,12 @@
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102">
+      <c r="B102" s="5">
         <v>330</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103">
+      <c r="B103" s="5">
         <v>340</v>
       </c>
       <c r="C103">
@@ -3689,7 +3697,7 @@
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104">
+      <c r="B104" s="5">
         <v>350</v>
       </c>
       <c r="C104">
@@ -3697,7 +3705,7 @@
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105">
+      <c r="B105" s="5">
         <v>360</v>
       </c>
       <c r="C105">
@@ -3705,17 +3713,17 @@
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106">
+      <c r="B106" s="5">
         <v>370</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107">
+      <c r="B107" s="5">
         <v>380</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108">
+      <c r="B108" s="5">
         <v>390</v>
       </c>
       <c r="C108">
@@ -3723,7 +3731,7 @@
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109">
+      <c r="B109" s="5">
         <v>400</v>
       </c>
       <c r="C109">
@@ -3731,103 +3739,285 @@
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110">
+      <c r="B110" s="5">
         <v>410</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111">
+      <c r="B111" s="5">
         <v>420</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112">
+      <c r="B112" s="5">
         <v>430</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113">
+      <c r="B113" s="5">
         <v>440</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114">
+      <c r="B114" s="5">
         <v>450</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115">
+      <c r="B115" s="5">
         <v>460</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116">
+      <c r="B116" s="5">
         <v>470</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117">
+      <c r="B117" s="5">
         <v>480</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118">
+      <c r="B118" s="5">
         <v>490</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119">
+      <c r="B119" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120">
+      <c r="B120" s="5">
         <v>510</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121">
+      <c r="B121" s="5">
         <v>520</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122">
+      <c r="B122" s="5">
         <v>530</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123">
+      <c r="B123" s="5">
         <v>540</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124">
+      <c r="B124" s="5">
         <v>550</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125">
+      <c r="B125" s="5">
         <v>560</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126">
+      <c r="B126" s="5">
         <v>570</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127">
+      <c r="B127" s="5">
         <v>580</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128">
+      <c r="B128" s="5">
         <v>590</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="5">
         <v>600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <f>120/B137</f>
+        <v>40</v>
+      </c>
+      <c r="B137" s="1">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>10.680300000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <f t="shared" ref="A138:A150" si="1">120/B138</f>
+        <v>30</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>10.627599999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B139" s="1">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>10.6442</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B140" s="1">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>10.8001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B141" s="1">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>10.6791</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B142" s="1">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>10.803100000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B143" s="1">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <v>10.6218</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B144" s="1">
+        <v>15</v>
+      </c>
+      <c r="C144">
+        <v>10.856400000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B145" s="1">
+        <v>20</v>
+      </c>
+      <c r="C145">
+        <v>10.832800000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B146" s="1">
+        <v>24</v>
+      </c>
+      <c r="C146">
+        <v>10.8543</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B147" s="1">
+        <v>30</v>
+      </c>
+      <c r="C147">
+        <v>10.8809</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B148" s="1">
+        <v>40</v>
+      </c>
+      <c r="C148">
+        <v>10.853400000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B149" s="1">
+        <v>60</v>
+      </c>
+      <c r="C149">
+        <v>10.907</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B150" s="1">
+        <v>120</v>
+      </c>
+      <c r="C150">
+        <v>10.929500000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Nazwa</t>
   </si>
@@ -691,220 +691,114 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$70:$B$99</c:f>
+              <c:f>Arkusz1!$B$137:$B$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$70:$C$99</c:f>
+              <c:f>Arkusz1!$C$137:$C$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>9.1875</c:v>
+                  <c:v>10.680300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4375</c:v>
+                  <c:v>10.627599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.375</c:v>
+                  <c:v>10.6442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1875</c:v>
+                  <c:v>10.8001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9375</c:v>
+                  <c:v>10.6791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6875</c:v>
+                  <c:v>10.803100000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.875</c:v>
+                  <c:v>10.6218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.0625</c:v>
+                  <c:v>10.856400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.5</c:v>
+                  <c:v>10.832800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.4375</c:v>
+                  <c:v>10.8543</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.25</c:v>
+                  <c:v>10.8809</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.1875</c:v>
+                  <c:v>10.853400000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.375</c:v>
+                  <c:v>10.907</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.9375</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.1875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.0625</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.5625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.1875</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.6875</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.8125</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10.875</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.8125</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.875</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.875</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.6875</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.25</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11.8125</c:v>
+                  <c:v>10.929500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,7 +806,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-59D0-43ED-B715-506E2E579F92}"/>
+              <c16:uniqueId val="{00000000-E16F-4E2C-9EDB-6281A6F4F381}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -924,11 +818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106414239"/>
-        <c:axId val="106429215"/>
+        <c:axId val="750742895"/>
+        <c:axId val="749812863"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106414239"/>
+        <c:axId val="750742895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,12 +879,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106429215"/>
+        <c:crossAx val="749812863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106429215"/>
+        <c:axId val="749812863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +941,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106414239"/>
+        <c:crossAx val="750742895"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2242,20 +2136,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>29135</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>179293</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2538,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,15 +3313,18 @@
         <v>10.7569</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="5">
         <v>10</v>
       </c>
@@ -3435,7 +3332,7 @@
         <v>9.1875</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="5">
         <v>20</v>
       </c>
@@ -3443,7 +3340,7 @@
         <v>9.4375</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="5">
         <v>30</v>
       </c>
@@ -3451,7 +3348,7 @@
         <v>9.375</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="5">
         <v>40</v>
       </c>
@@ -3459,7 +3356,7 @@
         <v>9.1875</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="5">
         <v>50</v>
       </c>
@@ -3467,7 +3364,7 @@
         <v>9.9375</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="5">
         <v>60</v>
       </c>
@@ -3475,7 +3372,7 @@
         <v>9.6875</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="5">
         <v>70</v>
       </c>
@@ -3483,7 +3380,7 @@
         <v>10.875</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="5">
         <v>80</v>
       </c>
@@ -3491,7 +3388,7 @@
         <v>10.0625</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="5">
         <v>90</v>
       </c>
@@ -3499,7 +3396,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="5">
         <v>100</v>
       </c>
@@ -3507,7 +3404,7 @@
         <v>10.4375</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="5">
         <v>110</v>
       </c>

--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Nazwa</t>
   </si>
@@ -129,7 +129,10 @@
     <t>minLsr</t>
   </si>
   <si>
-    <t>&lt;= minimum</t>
+    <t>minLsr z podziałem</t>
+  </si>
+  <si>
+    <t>minimum</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,11 +167,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +220,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -212,7 +263,68 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Średnia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> entropia dla wszystkich plików po kodowaniu predykcyjnym MMSE</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -680,7 +792,68 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>b &lt; 5; 24</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> &gt;</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -691,114 +864,400 @@
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$137:$B$150</c:f>
+              <c:f>Arkusz1!$B$70:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>120</c:v>
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$137:$C$150</c:f>
+              <c:f>Arkusz1!$C$70:$C$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>10.680300000000001</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.627599999999999</c:v>
+                  <c:v>9.5625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.6442</c:v>
+                  <c:v>8.9375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.8001</c:v>
+                  <c:v>10.0625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.6791</c:v>
+                  <c:v>10.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.803100000000001</c:v>
+                  <c:v>10.4375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.6218</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.856400000000001</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.832800000000001</c:v>
+                  <c:v>11.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.8543</c:v>
+                  <c:v>11.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.8809</c:v>
+                  <c:v>11.3125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.853400000000001</c:v>
+                  <c:v>11.875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.907</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.929500000000001</c:v>
+                  <c:v>12.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.4375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.4375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.6875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.1875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.1875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.4375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.1875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.3125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.0625</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.0625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.5625</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.9375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.4375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.4375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.5625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.1875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.8125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.8125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.3125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.5625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.5625</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.8125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.8125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.625</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.5625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,7 +1265,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E16F-4E2C-9EDB-6281A6F4F381}"/>
+              <c16:uniqueId val="{00000000-C65B-480B-9349-9395CEB74EAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -818,11 +1277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="750742895"/>
-        <c:axId val="749812863"/>
+        <c:axId val="761080992"/>
+        <c:axId val="761071840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="750742895"/>
+        <c:axId val="761080992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,12 +1338,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="749812863"/>
+        <c:crossAx val="761071840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="749812863"/>
+        <c:axId val="761071840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,7 +1400,668 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="750742895"/>
+        <c:crossAx val="761080992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>minLsr &lt; 5; 24</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> &gt;</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$70:$B$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$70:$D$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>11.252800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.289300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.3705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.502700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.5708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.613899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.738799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.797499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.8233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.7942</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.8276</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.834</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.8576</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.9513</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.058199999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.033099999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.063000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.001200000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.078099999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.0738</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.077299999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.0924</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.079499999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.1343</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.1449</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.176399999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.188499999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.207100000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.1791</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.2835</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.2011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.214499999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.2576</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.256</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.2684</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.218400000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.2667</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.2286</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.305999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.324999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.3657</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.3368</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.3781</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.4305</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.3377</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.328900000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.383100000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.4437</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.379300000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.4063</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.4442</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.4511</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.4572</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.429</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.487399999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.442399999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.4519</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.4596</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.4899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCE4-4C7D-BC98-6286B51D6C6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="761066432"/>
+        <c:axId val="761066848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="761066432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761066848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="761066848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761066432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1070,6 +2190,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1587,6 +2747,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2137,19 +3813,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2159,6 +3835,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2432,8 +4138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3328,412 +5034,661 @@
       <c r="B70" s="5">
         <v>10</v>
       </c>
-      <c r="C70">
-        <v>9.1875</v>
+      <c r="C70" s="2">
+        <v>9.25</v>
+      </c>
+      <c r="D70" s="2">
+        <v>11.252800000000001</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="5">
         <v>20</v>
       </c>
-      <c r="C71">
-        <v>9.4375</v>
+      <c r="C71" s="2">
+        <v>9.5625</v>
+      </c>
+      <c r="D71" s="2">
+        <v>11.289300000000001</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="5">
         <v>30</v>
       </c>
-      <c r="C72">
-        <v>9.375</v>
+      <c r="C72" s="2">
+        <v>8.9375</v>
+      </c>
+      <c r="D72" s="2">
+        <v>11.3705</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="5">
         <v>40</v>
       </c>
-      <c r="C73">
-        <v>9.1875</v>
+      <c r="C73" s="2">
+        <v>10.0625</v>
+      </c>
+      <c r="D73" s="2">
+        <v>11.502700000000001</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="5">
         <v>50</v>
       </c>
-      <c r="C74">
-        <v>9.9375</v>
+      <c r="C74" s="2">
+        <v>10.375</v>
+      </c>
+      <c r="D74" s="2">
+        <v>11.5708</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="5">
         <v>60</v>
       </c>
-      <c r="C75">
-        <v>9.6875</v>
+      <c r="C75" s="2">
+        <v>10.4375</v>
+      </c>
+      <c r="D75" s="2">
+        <v>11.613899999999999</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="5">
         <v>70</v>
       </c>
-      <c r="C76">
-        <v>10.875</v>
+      <c r="C76" s="2">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2">
+        <v>11.738799999999999</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="5">
         <v>80</v>
       </c>
-      <c r="C77">
-        <v>10.0625</v>
+      <c r="C77" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="D77" s="2">
+        <v>11.797499999999999</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="5">
         <v>90</v>
       </c>
-      <c r="C78">
-        <v>10.5</v>
+      <c r="C78" s="2">
+        <v>11.125</v>
+      </c>
+      <c r="D78" s="2">
+        <v>11.8233</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="5">
         <v>100</v>
       </c>
-      <c r="C79">
-        <v>10.4375</v>
+      <c r="C79" s="2">
+        <v>11.125</v>
+      </c>
+      <c r="D79" s="2">
+        <v>11.7942</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="5">
         <v>110</v>
       </c>
-      <c r="C80">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="2">
+        <v>11.3125</v>
+      </c>
+      <c r="D80" s="2">
+        <v>11.8276</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="5">
         <v>120</v>
       </c>
-      <c r="C81">
-        <v>11.1875</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="2">
+        <v>11.875</v>
+      </c>
+      <c r="D81" s="2">
+        <v>11.834</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="5">
         <v>130</v>
       </c>
-      <c r="C82">
-        <v>11.375</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="D82" s="2">
+        <v>11.8576</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="5">
         <v>140</v>
       </c>
-      <c r="C83">
-        <v>11.9375</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="2">
+        <v>12.125</v>
+      </c>
+      <c r="D83" s="2">
+        <v>11.9513</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="5">
         <v>150</v>
       </c>
-      <c r="C84">
-        <v>11.375</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="2">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2">
+        <v>12.058199999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="5">
         <v>160</v>
       </c>
-      <c r="C85">
-        <v>11.1875</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="2">
+        <v>11.4375</v>
+      </c>
+      <c r="D85" s="2">
+        <v>12.033099999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="5">
         <v>170</v>
       </c>
-      <c r="C86">
-        <v>11.0625</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="2">
+        <v>11.4375</v>
+      </c>
+      <c r="D86" s="2">
+        <v>12.063000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="5">
         <v>180</v>
       </c>
-      <c r="C87">
-        <v>11.5625</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="2">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2">
+        <v>12.001200000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="5">
         <v>190</v>
       </c>
-      <c r="C88">
-        <v>11.1875</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="2">
+        <v>11.6875</v>
+      </c>
+      <c r="D88" s="2">
+        <v>12.078099999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="5">
         <v>200</v>
       </c>
-      <c r="C89">
-        <v>11.6875</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="2">
+        <v>12.1875</v>
+      </c>
+      <c r="D89" s="2">
+        <v>12.0738</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="5">
         <v>210</v>
       </c>
-      <c r="C90">
-        <v>11.8125</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="2">
+        <v>12.1875</v>
+      </c>
+      <c r="D90" s="2">
+        <v>12.077299999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="5">
         <v>220</v>
       </c>
-      <c r="C91">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="2">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2">
+        <v>12.0924</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="5">
         <v>230</v>
       </c>
-      <c r="C92">
-        <v>10.875</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="2">
+        <v>11.4375</v>
+      </c>
+      <c r="D92" s="2">
+        <v>12.079499999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="5">
         <v>240</v>
       </c>
-      <c r="C93">
-        <v>11.8125</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="2">
+        <v>12.1875</v>
+      </c>
+      <c r="D93" s="2">
+        <v>12.1343</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="5">
         <v>250</v>
       </c>
-      <c r="C94">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="2">
+        <v>12.25</v>
+      </c>
+      <c r="D94" s="2">
+        <v>12.1449</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="5">
         <v>260</v>
       </c>
-      <c r="C95">
-        <v>11.875</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="2">
+        <v>12.375</v>
+      </c>
+      <c r="D95" s="2">
+        <v>12.176399999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="5">
         <v>270</v>
       </c>
-      <c r="C96">
-        <v>11.875</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="2">
+        <v>12.3125</v>
+      </c>
+      <c r="D96" s="2">
+        <v>12.188499999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="5">
         <v>280</v>
       </c>
-      <c r="C97">
-        <v>11.6875</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="2">
+        <v>12.0625</v>
+      </c>
+      <c r="D97" s="2">
+        <v>12.207100000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="5">
         <v>290</v>
       </c>
-      <c r="C98">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="2">
+        <v>12.375</v>
+      </c>
+      <c r="D98" s="2">
+        <v>12.1791</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="5">
         <v>300</v>
       </c>
-      <c r="C99">
-        <v>11.8125</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="2">
+        <v>12.125</v>
+      </c>
+      <c r="D99" s="2">
+        <v>12.2835</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="5">
         <v>310</v>
       </c>
-      <c r="C100">
-        <v>11.875</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="2">
+        <v>12.0625</v>
+      </c>
+      <c r="D100" s="2">
+        <v>12.2011</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="5">
         <v>320</v>
       </c>
-      <c r="C101">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="2">
+        <v>12.5625</v>
+      </c>
+      <c r="D101" s="2">
+        <v>12.214499999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="5">
         <v>330</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="2">
+        <v>11.9375</v>
+      </c>
+      <c r="D102" s="2">
+        <v>12.2576</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="5">
         <v>340</v>
       </c>
-      <c r="C103">
-        <v>11.9375</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="2">
+        <v>12.375</v>
+      </c>
+      <c r="D103" s="2">
+        <v>12.256</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="5">
         <v>350</v>
       </c>
-      <c r="C104">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="2">
+        <v>12.4375</v>
+      </c>
+      <c r="D104" s="2">
+        <v>12.2684</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="5">
         <v>360</v>
       </c>
-      <c r="C105">
-        <v>11.9375</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="2">
+        <v>12.125</v>
+      </c>
+      <c r="D105" s="2">
+        <v>12.218400000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="5">
         <v>370</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="2">
+        <v>12.4375</v>
+      </c>
+      <c r="D106" s="2">
+        <v>12.2667</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="5">
         <v>380</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="2">
+        <v>12.25</v>
+      </c>
+      <c r="D107" s="2">
+        <v>12.2286</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="5">
         <v>390</v>
       </c>
-      <c r="C108">
-        <v>12.375</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="2">
+        <v>12.625</v>
+      </c>
+      <c r="D108" s="2">
+        <v>12.305999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="5">
         <v>400</v>
       </c>
-      <c r="C109">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="2">
+        <v>12.375</v>
+      </c>
+      <c r="D109" s="2">
+        <v>12.324999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="5">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="D110" s="2">
+        <v>12.3657</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="5">
         <v>420</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="2">
+        <v>12.5625</v>
+      </c>
+      <c r="D111" s="2">
+        <v>12.3368</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="5">
         <v>430</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C112" s="2">
+        <v>12.1875</v>
+      </c>
+      <c r="D112" s="2">
+        <v>12.3781</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="5">
         <v>440</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C113" s="2">
+        <v>12.8125</v>
+      </c>
+      <c r="D113" s="2">
+        <v>12.4305</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="5">
         <v>450</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D114" s="2">
+        <v>12.3377</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="5">
         <v>460</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="2">
+        <v>12.8125</v>
+      </c>
+      <c r="D115" s="2">
+        <v>12.328900000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="5">
         <v>470</v>
       </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C116" s="2">
+        <v>12.3125</v>
+      </c>
+      <c r="D116" s="2">
+        <v>12.383100000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="5">
         <v>480</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C117" s="2">
+        <v>12.5625</v>
+      </c>
+      <c r="D117" s="2">
+        <v>12.4437</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="5">
         <v>490</v>
       </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C118" s="2">
+        <v>12.375</v>
+      </c>
+      <c r="D118" s="2">
+        <v>12.379300000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="5">
         <v>500</v>
       </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C119" s="2">
+        <v>12.5625</v>
+      </c>
+      <c r="D119" s="2">
+        <v>12.4063</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="5">
         <v>510</v>
       </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C120" s="2">
+        <v>12.875</v>
+      </c>
+      <c r="D120" s="2">
+        <v>12.4442</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="5">
         <v>520</v>
       </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C121" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="D121" s="2">
+        <v>12.4511</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="5">
         <v>530</v>
       </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C122" s="2">
+        <v>12.8125</v>
+      </c>
+      <c r="D122" s="2">
+        <v>12.4572</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="5">
         <v>540</v>
       </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C123" s="2">
+        <v>12.25</v>
+      </c>
+      <c r="D123" s="2">
+        <v>12.429</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="5">
         <v>550</v>
       </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C124" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="D124" s="2">
+        <v>12.487399999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="5">
         <v>560</v>
       </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C125" s="2">
+        <v>12.8125</v>
+      </c>
+      <c r="D125" s="2">
+        <v>12.442399999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="5">
         <v>570</v>
       </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C126" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="D126" s="2">
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="5">
         <v>580</v>
       </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C127" s="2">
+        <v>12.625</v>
+      </c>
+      <c r="D127" s="2">
+        <v>12.4519</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="5">
         <v>590</v>
+      </c>
+      <c r="C128" s="2">
+        <v>12.625</v>
+      </c>
+      <c r="D128" s="2">
+        <v>12.4596</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" s="5">
         <v>600</v>
       </c>
+      <c r="C129" s="2">
+        <v>12.5625</v>
+      </c>
+      <c r="D129" s="2">
+        <v>12.4899</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -3743,7 +5698,7 @@
         <v>22</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3807,30 +5762,30 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+      <c r="A142" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="8">
         <v>10</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="6">
         <v>10.803100000000001</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+      <c r="A143" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="9">
         <v>12</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="7">
         <v>10.6218</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">

--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Nazwa</t>
   </si>
@@ -33,55 +33,7 @@
     <t>Entropia</t>
   </si>
   <si>
-    <t>ATrain.wav</t>
-  </si>
-  <si>
     <t>Lp</t>
-  </si>
-  <si>
-    <t>BeautySlept.wav</t>
-  </si>
-  <si>
-    <t>death2.wav</t>
-  </si>
-  <si>
-    <t>experiencia.wav</t>
-  </si>
-  <si>
-    <t>female_speech.wav</t>
-  </si>
-  <si>
-    <t>FloorEssence.wav</t>
-  </si>
-  <si>
-    <t>ItCouldBeSweet.wav</t>
-  </si>
-  <si>
-    <t>Layla.wav</t>
-  </si>
-  <si>
-    <t>LifeShatters.wav</t>
-  </si>
-  <si>
-    <t>macabre.wav</t>
-  </si>
-  <si>
-    <t>male_speech.wav</t>
-  </si>
-  <si>
-    <t>SinceAlways.wav</t>
-  </si>
-  <si>
-    <t>thear1.wav</t>
-  </si>
-  <si>
-    <t>TomsDiner.wav</t>
-  </si>
-  <si>
-    <t>velvet.wav</t>
-  </si>
-  <si>
-    <t>chanchan.wav</t>
   </si>
   <si>
     <t>Średnia</t>
@@ -132,7 +84,52 @@
     <t>minLsr z podziałem</t>
   </si>
   <si>
-    <t>minimum</t>
+    <t>ATrain,wav</t>
+  </si>
+  <si>
+    <t>BeautySlept,wav</t>
+  </si>
+  <si>
+    <t>chanchan,wav</t>
+  </si>
+  <si>
+    <t>death2,wav</t>
+  </si>
+  <si>
+    <t>experiencia,wav</t>
+  </si>
+  <si>
+    <t>female_speech,wav</t>
+  </si>
+  <si>
+    <t>FloorEssence,wav</t>
+  </si>
+  <si>
+    <t>ItCouldBeSweet,wav</t>
+  </si>
+  <si>
+    <t>Layla,wav</t>
+  </si>
+  <si>
+    <t>LifeShatters,wav</t>
+  </si>
+  <si>
+    <t>macabre,wav</t>
+  </si>
+  <si>
+    <t>male_speech,wav</t>
+  </si>
+  <si>
+    <t>SinceAlways,wav</t>
+  </si>
+  <si>
+    <t>thear1,wav</t>
+  </si>
+  <si>
+    <t>TomsDiner,wav</t>
+  </si>
+  <si>
+    <t>velvet,wav</t>
   </si>
 </sst>
 </file>
@@ -159,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -167,48 +164,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,17 +181,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -294,7 +248,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -813,7 +766,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>b &lt; 5; 24</a:t>
+              <a:t>b &lt; 5; 16</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
@@ -1080,184 +1033,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>9.25</c:v>
+                  <c:v>9.78125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5625</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9375</c:v>
+                  <c:v>10.5313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0625</c:v>
+                  <c:v>11.1875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.375</c:v>
+                  <c:v>11.4063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.4375</c:v>
+                  <c:v>11.2813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>11.9063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.5</c:v>
+                  <c:v>11.4375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.125</c:v>
+                  <c:v>12.0938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.125</c:v>
+                  <c:v>11.9063</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.3125</c:v>
+                  <c:v>11.9688</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.875</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.5</c:v>
+                  <c:v>12.4063</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.125</c:v>
+                  <c:v>12.9375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>12.7813</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.4375</c:v>
+                  <c:v>12.5938</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.4375</c:v>
+                  <c:v>12.375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>12.7813</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.6875</c:v>
+                  <c:v>12.5313</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.1875</c:v>
+                  <c:v>13.0313</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.1875</c:v>
+                  <c:v>12.875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12</c:v>
+                  <c:v>12.7188</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11.4375</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.1875</c:v>
+                  <c:v>13.0938</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.25</c:v>
+                  <c:v>12.875</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.375</c:v>
+                  <c:v>13.0625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12.3125</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.0625</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.375</c:v>
+                  <c:v>12.8438</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.125</c:v>
+                  <c:v>12.9688</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.0625</c:v>
+                  <c:v>12.6875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.5625</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.9375</c:v>
+                  <c:v>12.8125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.375</c:v>
+                  <c:v>13.1875</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.4375</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.125</c:v>
+                  <c:v>12.8438</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.4375</c:v>
+                  <c:v>12.9063</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.25</c:v>
+                  <c:v>13.125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.625</c:v>
+                  <c:v>13.1875</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.375</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>12.75</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>12.5625</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>12.1875</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12.8125</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12.8125</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>12.3125</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12.5625</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12.375</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.5625</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>12.875</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12.8125</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12.25</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12.75</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>12.8125</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.75</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>12.625</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>12.625</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>12.5625</c:v>
+                  <c:v>13.5313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,7 +1377,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>minLsr &lt; 5; 24</a:t>
+              <a:t>minLsr &lt; 5; 16</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
@@ -1741,184 +1634,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>11.252800000000001</c:v>
+                  <c:v>10.829000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.289300000000001</c:v>
+                  <c:v>10.7867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.3705</c:v>
+                  <c:v>10.7643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.502700000000001</c:v>
+                  <c:v>10.750999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.5708</c:v>
+                  <c:v>10.747299999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.613899999999999</c:v>
+                  <c:v>10.738899999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.738799999999999</c:v>
+                  <c:v>10.735799999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.797499999999999</c:v>
+                  <c:v>10.730600000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.8233</c:v>
+                  <c:v>10.7301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.7942</c:v>
+                  <c:v>10.725300000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.8276</c:v>
+                  <c:v>10.720800000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.834</c:v>
+                  <c:v>10.718999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.8576</c:v>
+                  <c:v>10.7189</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.9513</c:v>
+                  <c:v>10.718400000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.058199999999999</c:v>
+                  <c:v>10.7157</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.033099999999999</c:v>
+                  <c:v>10.712999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.063000000000001</c:v>
+                  <c:v>10.710900000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.001200000000001</c:v>
+                  <c:v>10.711399999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.078099999999999</c:v>
+                  <c:v>10.7073</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.0738</c:v>
+                  <c:v>10.704700000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.077299999999999</c:v>
+                  <c:v>10.700799999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.0924</c:v>
+                  <c:v>10.699199999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.079499999999999</c:v>
+                  <c:v>10.696400000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.1343</c:v>
+                  <c:v>10.6951</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.1449</c:v>
+                  <c:v>10.6937</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.176399999999999</c:v>
+                  <c:v>10.691800000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12.188499999999999</c:v>
+                  <c:v>10.6897</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.207100000000001</c:v>
+                  <c:v>10.6897</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.1791</c:v>
+                  <c:v>10.6883</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.2835</c:v>
+                  <c:v>10.6846</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.2011</c:v>
+                  <c:v>10.6836</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.214499999999999</c:v>
+                  <c:v>10.681800000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.2576</c:v>
+                  <c:v>10.677899999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.256</c:v>
+                  <c:v>10.6738</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.2684</c:v>
+                  <c:v>10.6717</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.218400000000001</c:v>
+                  <c:v>10.670500000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.2667</c:v>
+                  <c:v>10.6684</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.2286</c:v>
+                  <c:v>10.666499999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.305999999999999</c:v>
+                  <c:v>10.663600000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.324999999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>12.3657</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>12.3368</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>12.3781</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12.4305</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>12.3377</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12.328900000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>12.383100000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12.4437</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12.379300000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.4063</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>12.4442</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>12.4511</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12.4572</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12.429</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12.487399999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>12.442399999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.48</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>12.4519</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>12.4596</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>12.4899</c:v>
+                  <c:v>10.6624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2110,6 +1943,386 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>minLsr z podziałem k</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$137:$B$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$137:$C$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>11.0215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.9779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.9414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.906499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.9177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.880599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.8475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.8245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.7918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.7828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.7805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.749000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.7256</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.722799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8E6-46DF-B662-C1EEBD6746F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2121056992"/>
+        <c:axId val="2121058240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2121056992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121058240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2121058240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121056992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2230,6 +2443,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3263,6 +3516,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3865,6 +4634,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4138,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,7 +4955,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -4168,19 +4967,19 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -4188,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1688526</v>
@@ -4217,7 +5016,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1378518</v>
@@ -4246,7 +5045,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1063080</v>
@@ -4275,7 +5074,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>1652746</v>
@@ -4304,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1764588</v>
@@ -4333,7 +5132,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1692318</v>
@@ -4362,7 +5161,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>1764384</v>
@@ -4391,7 +5190,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>1765496</v>
@@ -4420,7 +5219,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>1749206</v>
@@ -4449,7 +5248,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>1756156</v>
@@ -4478,7 +5277,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>1540674</v>
@@ -4507,7 +5306,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>1583468</v>
@@ -4536,7 +5335,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>1604472</v>
@@ -4565,7 +5364,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>1703930</v>
@@ -4594,7 +5393,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>1751498</v>
@@ -4623,7 +5422,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>1047684</v>
@@ -4649,7 +5448,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2">
         <f>SUM(D3:D18)/16</f>
@@ -4682,10 +5481,10 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -4704,7 +5503,7 @@
         <v>10.9178</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -4715,7 +5514,7 @@
         <v>10.908200000000001</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J28">
         <v>0.97889999999999999</v>
@@ -4729,7 +5528,7 @@
         <v>10.882199999999999</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J29">
         <v>0.97489999999999999</v>
@@ -4743,7 +5542,7 @@
         <v>10.875500000000001</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J30">
         <v>0.95740000000000003</v>
@@ -4757,7 +5556,7 @@
         <v>10.855700000000001</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J31">
         <v>0.93220000000000003</v>
@@ -5021,13 +5820,13 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -5035,10 +5834,10 @@
         <v>10</v>
       </c>
       <c r="C70" s="2">
-        <v>9.25</v>
+        <v>9.78125</v>
       </c>
       <c r="D70" s="2">
-        <v>11.252800000000001</v>
+        <v>10.829000000000001</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -5046,10 +5845,10 @@
         <v>20</v>
       </c>
       <c r="C71" s="2">
-        <v>9.5625</v>
+        <v>10.5</v>
       </c>
       <c r="D71" s="2">
-        <v>11.289300000000001</v>
+        <v>10.7867</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -5057,10 +5856,10 @@
         <v>30</v>
       </c>
       <c r="C72" s="2">
-        <v>8.9375</v>
+        <v>10.5313</v>
       </c>
       <c r="D72" s="2">
-        <v>11.3705</v>
+        <v>10.7643</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -5068,10 +5867,10 @@
         <v>40</v>
       </c>
       <c r="C73" s="2">
-        <v>10.0625</v>
+        <v>11.1875</v>
       </c>
       <c r="D73" s="2">
-        <v>11.502700000000001</v>
+        <v>10.750999999999999</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -5079,10 +5878,10 @@
         <v>50</v>
       </c>
       <c r="C74" s="2">
-        <v>10.375</v>
+        <v>11.4063</v>
       </c>
       <c r="D74" s="2">
-        <v>11.5708</v>
+        <v>10.747299999999999</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -5090,10 +5889,10 @@
         <v>60</v>
       </c>
       <c r="C75" s="2">
-        <v>10.4375</v>
+        <v>11.2813</v>
       </c>
       <c r="D75" s="2">
-        <v>11.613899999999999</v>
+        <v>10.738899999999999</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -5101,10 +5900,10 @@
         <v>70</v>
       </c>
       <c r="C76" s="2">
-        <v>11</v>
+        <v>11.9063</v>
       </c>
       <c r="D76" s="2">
-        <v>11.738799999999999</v>
+        <v>10.735799999999999</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -5112,10 +5911,10 @@
         <v>80</v>
       </c>
       <c r="C77" s="2">
-        <v>10.5</v>
+        <v>11.4375</v>
       </c>
       <c r="D77" s="2">
-        <v>11.797499999999999</v>
+        <v>10.730600000000001</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -5123,10 +5922,10 @@
         <v>90</v>
       </c>
       <c r="C78" s="2">
-        <v>11.125</v>
+        <v>12.0938</v>
       </c>
       <c r="D78" s="2">
-        <v>11.8233</v>
+        <v>10.7301</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -5134,10 +5933,10 @@
         <v>100</v>
       </c>
       <c r="C79" s="2">
-        <v>11.125</v>
+        <v>11.9063</v>
       </c>
       <c r="D79" s="2">
-        <v>11.7942</v>
+        <v>10.725300000000001</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -5145,10 +5944,10 @@
         <v>110</v>
       </c>
       <c r="C80" s="2">
-        <v>11.3125</v>
+        <v>11.9688</v>
       </c>
       <c r="D80" s="2">
-        <v>11.8276</v>
+        <v>10.720800000000001</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -5156,10 +5955,10 @@
         <v>120</v>
       </c>
       <c r="C81" s="2">
-        <v>11.875</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2">
-        <v>11.834</v>
+        <v>10.718999999999999</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -5167,10 +5966,10 @@
         <v>130</v>
       </c>
       <c r="C82" s="2">
-        <v>11.5</v>
+        <v>12.4063</v>
       </c>
       <c r="D82" s="2">
-        <v>11.8576</v>
+        <v>10.7189</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -5178,10 +5977,10 @@
         <v>140</v>
       </c>
       <c r="C83" s="2">
-        <v>12.125</v>
+        <v>12.9375</v>
       </c>
       <c r="D83" s="2">
-        <v>11.9513</v>
+        <v>10.718400000000001</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
@@ -5189,10 +5988,10 @@
         <v>150</v>
       </c>
       <c r="C84" s="2">
-        <v>12</v>
+        <v>12.7813</v>
       </c>
       <c r="D84" s="2">
-        <v>12.058199999999999</v>
+        <v>10.7157</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
@@ -5200,10 +5999,10 @@
         <v>160</v>
       </c>
       <c r="C85" s="2">
-        <v>11.4375</v>
+        <v>12.5938</v>
       </c>
       <c r="D85" s="2">
-        <v>12.033099999999999</v>
+        <v>10.712999999999999</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
@@ -5211,10 +6010,10 @@
         <v>170</v>
       </c>
       <c r="C86" s="2">
-        <v>11.4375</v>
+        <v>12.375</v>
       </c>
       <c r="D86" s="2">
-        <v>12.063000000000001</v>
+        <v>10.710900000000001</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
@@ -5222,10 +6021,10 @@
         <v>180</v>
       </c>
       <c r="C87" s="2">
-        <v>12</v>
+        <v>12.7813</v>
       </c>
       <c r="D87" s="2">
-        <v>12.001200000000001</v>
+        <v>10.711399999999999</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
@@ -5233,10 +6032,10 @@
         <v>190</v>
       </c>
       <c r="C88" s="2">
-        <v>11.6875</v>
+        <v>12.5313</v>
       </c>
       <c r="D88" s="2">
-        <v>12.078099999999999</v>
+        <v>10.7073</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
@@ -5244,10 +6043,10 @@
         <v>200</v>
       </c>
       <c r="C89" s="2">
-        <v>12.1875</v>
+        <v>13.0313</v>
       </c>
       <c r="D89" s="2">
-        <v>12.0738</v>
+        <v>10.704700000000001</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
@@ -5255,10 +6054,10 @@
         <v>210</v>
       </c>
       <c r="C90" s="2">
-        <v>12.1875</v>
+        <v>12.875</v>
       </c>
       <c r="D90" s="2">
-        <v>12.077299999999999</v>
+        <v>10.700799999999999</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
@@ -5266,10 +6065,10 @@
         <v>220</v>
       </c>
       <c r="C91" s="2">
-        <v>12</v>
+        <v>12.7188</v>
       </c>
       <c r="D91" s="2">
-        <v>12.0924</v>
+        <v>10.699199999999999</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
@@ -5277,10 +6076,10 @@
         <v>230</v>
       </c>
       <c r="C92" s="2">
-        <v>11.4375</v>
+        <v>12.5</v>
       </c>
       <c r="D92" s="2">
-        <v>12.079499999999999</v>
+        <v>10.696400000000001</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
@@ -5288,10 +6087,10 @@
         <v>240</v>
       </c>
       <c r="C93" s="2">
-        <v>12.1875</v>
+        <v>13.0938</v>
       </c>
       <c r="D93" s="2">
-        <v>12.1343</v>
+        <v>10.6951</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
@@ -5299,10 +6098,10 @@
         <v>250</v>
       </c>
       <c r="C94" s="2">
-        <v>12.25</v>
+        <v>12.875</v>
       </c>
       <c r="D94" s="2">
-        <v>12.1449</v>
+        <v>10.6937</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
@@ -5310,10 +6109,10 @@
         <v>260</v>
       </c>
       <c r="C95" s="2">
-        <v>12.375</v>
+        <v>13.0625</v>
       </c>
       <c r="D95" s="2">
-        <v>12.176399999999999</v>
+        <v>10.691800000000001</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
@@ -5321,10 +6120,10 @@
         <v>270</v>
       </c>
       <c r="C96" s="2">
-        <v>12.3125</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2">
-        <v>12.188499999999999</v>
+        <v>10.6897</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
@@ -5332,10 +6131,10 @@
         <v>280</v>
       </c>
       <c r="C97" s="2">
-        <v>12.0625</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2">
-        <v>12.207100000000001</v>
+        <v>10.6897</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -5343,10 +6142,10 @@
         <v>290</v>
       </c>
       <c r="C98" s="2">
-        <v>12.375</v>
+        <v>12.8438</v>
       </c>
       <c r="D98" s="2">
-        <v>12.1791</v>
+        <v>10.6883</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
@@ -5354,10 +6153,10 @@
         <v>300</v>
       </c>
       <c r="C99" s="2">
-        <v>12.125</v>
+        <v>12.9688</v>
       </c>
       <c r="D99" s="2">
-        <v>12.2835</v>
+        <v>10.6846</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
@@ -5365,10 +6164,10 @@
         <v>310</v>
       </c>
       <c r="C100" s="2">
-        <v>12.0625</v>
+        <v>12.6875</v>
       </c>
       <c r="D100" s="2">
-        <v>12.2011</v>
+        <v>10.6836</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
@@ -5376,10 +6175,10 @@
         <v>320</v>
       </c>
       <c r="C101" s="2">
-        <v>12.5625</v>
+        <v>13.25</v>
       </c>
       <c r="D101" s="2">
-        <v>12.214499999999999</v>
+        <v>10.681800000000001</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
@@ -5387,10 +6186,10 @@
         <v>330</v>
       </c>
       <c r="C102" s="2">
-        <v>11.9375</v>
+        <v>12.8125</v>
       </c>
       <c r="D102" s="2">
-        <v>12.2576</v>
+        <v>10.677899999999999</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
@@ -5398,10 +6197,10 @@
         <v>340</v>
       </c>
       <c r="C103" s="2">
-        <v>12.375</v>
+        <v>13.1875</v>
       </c>
       <c r="D103" s="2">
-        <v>12.256</v>
+        <v>10.6738</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
@@ -5409,10 +6208,10 @@
         <v>350</v>
       </c>
       <c r="C104" s="2">
-        <v>12.4375</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2">
-        <v>12.2684</v>
+        <v>10.6717</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
@@ -5420,10 +6219,10 @@
         <v>360</v>
       </c>
       <c r="C105" s="2">
-        <v>12.125</v>
+        <v>12.8438</v>
       </c>
       <c r="D105" s="2">
-        <v>12.218400000000001</v>
+        <v>10.670500000000001</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
@@ -5431,10 +6230,10 @@
         <v>370</v>
       </c>
       <c r="C106" s="2">
-        <v>12.4375</v>
+        <v>12.9063</v>
       </c>
       <c r="D106" s="2">
-        <v>12.2667</v>
+        <v>10.6684</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
@@ -5442,10 +6241,10 @@
         <v>380</v>
       </c>
       <c r="C107" s="2">
-        <v>12.25</v>
+        <v>13.125</v>
       </c>
       <c r="D107" s="2">
-        <v>12.2286</v>
+        <v>10.666499999999999</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
@@ -5453,10 +6252,10 @@
         <v>390</v>
       </c>
       <c r="C108" s="2">
-        <v>12.625</v>
+        <v>13.1875</v>
       </c>
       <c r="D108" s="2">
-        <v>12.305999999999999</v>
+        <v>10.663600000000001</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
@@ -5464,241 +6263,161 @@
         <v>400</v>
       </c>
       <c r="C109" s="2">
-        <v>12.375</v>
+        <v>13.5313</v>
       </c>
       <c r="D109" s="2">
-        <v>12.324999999999999</v>
+        <v>10.6624</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="5">
         <v>410</v>
       </c>
-      <c r="C110" s="2">
-        <v>12.75</v>
-      </c>
-      <c r="D110" s="2">
-        <v>12.3657</v>
-      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="5">
         <v>420</v>
       </c>
-      <c r="C111" s="2">
-        <v>12.5625</v>
-      </c>
-      <c r="D111" s="2">
-        <v>12.3368</v>
-      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="5">
         <v>430</v>
       </c>
-      <c r="C112" s="2">
-        <v>12.1875</v>
-      </c>
-      <c r="D112" s="2">
-        <v>12.3781</v>
-      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="5">
         <v>440</v>
       </c>
-      <c r="C113" s="2">
-        <v>12.8125</v>
-      </c>
-      <c r="D113" s="2">
-        <v>12.4305</v>
-      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="5">
         <v>450</v>
       </c>
-      <c r="C114" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="D114" s="2">
-        <v>12.3377</v>
-      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="5">
         <v>460</v>
       </c>
-      <c r="C115" s="2">
-        <v>12.8125</v>
-      </c>
-      <c r="D115" s="2">
-        <v>12.328900000000001</v>
-      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="5">
         <v>470</v>
       </c>
-      <c r="C116" s="2">
-        <v>12.3125</v>
-      </c>
-      <c r="D116" s="2">
-        <v>12.383100000000001</v>
-      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="5">
         <v>480</v>
       </c>
-      <c r="C117" s="2">
-        <v>12.5625</v>
-      </c>
-      <c r="D117" s="2">
-        <v>12.4437</v>
-      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="5">
         <v>490</v>
       </c>
-      <c r="C118" s="2">
-        <v>12.375</v>
-      </c>
-      <c r="D118" s="2">
-        <v>12.379300000000001</v>
-      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="5">
         <v>500</v>
       </c>
-      <c r="C119" s="2">
-        <v>12.5625</v>
-      </c>
-      <c r="D119" s="2">
-        <v>12.4063</v>
-      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="5">
         <v>510</v>
       </c>
-      <c r="C120" s="2">
-        <v>12.875</v>
-      </c>
-      <c r="D120" s="2">
-        <v>12.4442</v>
-      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="5">
         <v>520</v>
       </c>
-      <c r="C121" s="2">
-        <v>12.5</v>
-      </c>
-      <c r="D121" s="2">
-        <v>12.4511</v>
-      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="5">
         <v>530</v>
       </c>
-      <c r="C122" s="2">
-        <v>12.8125</v>
-      </c>
-      <c r="D122" s="2">
-        <v>12.4572</v>
-      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="5">
         <v>540</v>
       </c>
-      <c r="C123" s="2">
-        <v>12.25</v>
-      </c>
-      <c r="D123" s="2">
-        <v>12.429</v>
-      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="5">
         <v>550</v>
       </c>
-      <c r="C124" s="2">
-        <v>12.75</v>
-      </c>
-      <c r="D124" s="2">
-        <v>12.487399999999999</v>
-      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="5">
         <v>560</v>
       </c>
-      <c r="C125" s="2">
-        <v>12.8125</v>
-      </c>
-      <c r="D125" s="2">
-        <v>12.442399999999999</v>
-      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="5">
         <v>570</v>
       </c>
-      <c r="C126" s="2">
-        <v>12.75</v>
-      </c>
-      <c r="D126" s="2">
-        <v>12.48</v>
-      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="5">
         <v>580</v>
       </c>
-      <c r="C127" s="2">
-        <v>12.625</v>
-      </c>
-      <c r="D127" s="2">
-        <v>12.4519</v>
-      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="5">
         <v>590</v>
       </c>
-      <c r="C128" s="2">
-        <v>12.625</v>
-      </c>
-      <c r="D128" s="2">
-        <v>12.4596</v>
-      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" s="5">
         <v>600</v>
       </c>
-      <c r="C129" s="2">
-        <v>12.5625</v>
-      </c>
-      <c r="D129" s="2">
-        <v>12.4899</v>
-      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5710,7 +6429,7 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>10.680300000000001</v>
+        <v>11.0215</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5722,7 +6441,7 @@
         <v>4</v>
       </c>
       <c r="C138">
-        <v>10.627599999999999</v>
+        <v>10.9779</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5734,7 +6453,7 @@
         <v>5</v>
       </c>
       <c r="C139">
-        <v>10.6442</v>
+        <v>10.9414</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5746,7 +6465,7 @@
         <v>6</v>
       </c>
       <c r="C140">
-        <v>10.8001</v>
+        <v>10.906499999999999</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5758,35 +6477,33 @@
         <v>8</v>
       </c>
       <c r="C141">
-        <v>10.6791</v>
+        <v>10.9177</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="8">
+      <c r="A142" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B142" s="8">
+      <c r="B142" s="6">
         <v>10</v>
       </c>
-      <c r="C142" s="6">
-        <v>10.803100000000001</v>
+      <c r="C142" s="7">
+        <v>10.880599999999999</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="10">
+      <c r="A143" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" s="6">
         <v>12</v>
       </c>
       <c r="C143" s="7">
-        <v>10.6218</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>10.8475</v>
+      </c>
+      <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -5797,7 +6514,7 @@
         <v>15</v>
       </c>
       <c r="C144">
-        <v>10.856400000000001</v>
+        <v>10.8245</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -5809,7 +6526,7 @@
         <v>20</v>
       </c>
       <c r="C145">
-        <v>10.832800000000001</v>
+        <v>10.7918</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5821,7 +6538,7 @@
         <v>24</v>
       </c>
       <c r="C146">
-        <v>10.8543</v>
+        <v>10.7828</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -5833,7 +6550,7 @@
         <v>30</v>
       </c>
       <c r="C147">
-        <v>10.8809</v>
+        <v>10.7805</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -5845,7 +6562,7 @@
         <v>40</v>
       </c>
       <c r="C148">
-        <v>10.853400000000001</v>
+        <v>10.749000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5857,7 +6574,7 @@
         <v>60</v>
       </c>
       <c r="C149">
-        <v>10.907</v>
+        <v>10.7256</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -5869,7 +6586,7 @@
         <v>120</v>
       </c>
       <c r="C150">
-        <v>10.929500000000001</v>
+        <v>10.722799999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Lp</t>
   </si>
@@ -105,21 +105,6 @@
     <t>średnia entropia</t>
   </si>
   <si>
-    <t>Suma współczynników predykcji ATrain</t>
-  </si>
-  <si>
-    <t>kanał lewy r = 3</t>
-  </si>
-  <si>
-    <t>kanał lewy r = 10</t>
-  </si>
-  <si>
-    <t>kanał prawy r = 3</t>
-  </si>
-  <si>
-    <t>kanał prawy r = 10</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -130,15 +115,6 @@
   </si>
   <si>
     <t>minLsr z podziałem</t>
-  </si>
-  <si>
-    <t>r 1:2</t>
-  </si>
-  <si>
-    <t>r 2:3</t>
-  </si>
-  <si>
-    <t>entropia</t>
   </si>
 </sst>
 </file>
@@ -306,7 +282,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$26:$B$63</c:f>
+              <c:f>Arkusz1!$B$23:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -429,7 +405,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$26:$C$63</c:f>
+              <c:f>Arkusz1!$C$23:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="38"/>
@@ -735,7 +711,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$70:$B$129</c:f>
+              <c:f>Arkusz1!$B$64:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -924,7 +900,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$70:$C$129</c:f>
+              <c:f>Arkusz1!$C$64:$C$123</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1237,7 +1213,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$70:$B$129</c:f>
+              <c:f>Arkusz1!$B$64:$B$123</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1426,7 +1402,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$70:$D$129</c:f>
+              <c:f>Arkusz1!$D$64:$D$123</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1692,292 +1668,6 @@
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>minLsr z podziałem k</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$B$137:$B$150</c:f>
-              <c:numCache>
-                <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$C$137:$C$150</c:f>
-              <c:numCache>
-                <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>11.0215</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.9779</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.9414</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.906499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.9177</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.880599999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.8475</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.8245</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.7918</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.7828</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.7805</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.749000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.7256</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.722799999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-27B3-421C-A72F-80C7F4FE10A5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1901736607"/>
-        <c:axId val="1901733279"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1901733279"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1901736607"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1901736607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1901733279"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -2008,7 +1698,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>r 1/2</a:t>
+              <a:t>min</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> Lsr z podziałem k</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2047,7 +1741,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2066,86 +1760,110 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$156:$B$165</c:f>
+              <c:f>Arkusz1!$B$127:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$156:$C$165</c:f>
+              <c:f>Arkusz1!$C$127:$C$140</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>14.1816</c:v>
+                  <c:v>10.6797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.7013</c:v>
+                  <c:v>10.6106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.963200000000001</c:v>
+                  <c:v>10.599500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.0404</c:v>
+                  <c:v>10.552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.040699999999999</c:v>
+                  <c:v>10.6229</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.138400000000001</c:v>
+                  <c:v>10.6547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.087999999999999</c:v>
+                  <c:v>10.604900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.1966</c:v>
+                  <c:v>10.706799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.038399999999999</c:v>
+                  <c:v>10.6731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.4655</c:v>
+                  <c:v>10.720700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.7133</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.6974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.6996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.722799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-329A-4C00-991B-042E3D60AD3A}"/>
+              <c16:uniqueId val="{00000000-15F3-40FE-8B6D-CB51A71EC63A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2157,11 +1875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="707019071"/>
-        <c:axId val="707030719"/>
+        <c:axId val="1133957824"/>
+        <c:axId val="1133956576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="707019071"/>
+        <c:axId val="1133957824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2218,12 +1936,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="707030719"/>
+        <c:crossAx val="1133956576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="707030719"/>
+        <c:axId val="1133956576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,368 +1998,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="707019071"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>r</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> 2/3</a:t>
-            </a:r>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$B$168:$B$177</c:f>
-              <c:numCache>
-                <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$C$168:$C$177</c:f>
-              <c:numCache>
-                <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>14.543699999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.991099999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.2288</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.4505</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.6393</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.9377</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.9099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.8055</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.937900000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.123799999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3A9-4786-9DA7-A62176D2F7CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="707028223"/>
-        <c:axId val="707023231"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="707028223"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="707023231"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="707023231"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="707028223"/>
+        <c:crossAx val="1133957824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2691,46 +2048,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3286,529 +2603,13 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>579600</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8350560" cy="3405240"/>
@@ -3833,7 +2634,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>951120</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>10080</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8281800" cy="3601440"/>
@@ -3858,7 +2659,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>894240</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8319960" cy="4913279"/>
@@ -3879,17 +2680,22 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4838400" cy="2535840"/>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Wykres 3"/>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3899,66 +2705,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2095500</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Wykres 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2114550</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Wykres 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4230,10 +2976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMJ177"/>
+  <dimension ref="A2:AMJ167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4776,1291 +3522,1186 @@
         <v>10.756900625</v>
       </c>
     </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>11.010300000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10.9178</v>
+      </c>
+    </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10.908200000000001</v>
+      </c>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>11.010300000000001</v>
-      </c>
+        <v>10.882199999999999</v>
+      </c>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3">
-        <v>10.9178</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>10.875500000000001</v>
+      </c>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3">
-        <v>10.908200000000001</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.97889999999999999</v>
-      </c>
+        <v>10.855700000000001</v>
+      </c>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3">
-        <v>10.882199999999999</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.97489999999999999</v>
+        <v>10.845800000000001</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C30" s="3">
-        <v>10.875500000000001</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.95740000000000003</v>
+        <v>10.833399999999999</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C31" s="3">
-        <v>10.855700000000001</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.93220000000000003</v>
+        <v>10.8314</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3">
-        <v>10.845800000000001</v>
+        <v>10.8263</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3">
-        <v>10.833399999999999</v>
+        <v>10.8256</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C34" s="3">
-        <v>10.8314</v>
+        <v>10.8187</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3">
-        <v>10.8263</v>
+        <v>10.819000000000001</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C36" s="3">
-        <v>10.8256</v>
+        <v>10.811299999999999</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3">
-        <v>10.8187</v>
+        <v>10.806900000000001</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C38" s="3">
-        <v>10.819000000000001</v>
+        <v>10.799799999999999</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C39" s="3">
-        <v>10.811299999999999</v>
+        <v>10.796799999999999</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C40" s="3">
-        <v>10.806900000000001</v>
+        <v>10.790699999999999</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C41" s="3">
-        <v>10.799799999999999</v>
+        <v>10.789199999999999</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C42" s="3">
-        <v>10.796799999999999</v>
+        <v>10.7844</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C43" s="3">
-        <v>10.790699999999999</v>
+        <v>10.7819</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C44" s="3">
-        <v>10.789199999999999</v>
+        <v>10.778700000000001</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C45" s="3">
-        <v>10.7844</v>
+        <v>10.777200000000001</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C46" s="3">
-        <v>10.7819</v>
+        <v>10.7758</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C47" s="3">
-        <v>10.778700000000001</v>
+        <v>10.7742</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C48" s="3">
-        <v>10.777200000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+        <v>10.773199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
+        <v>29</v>
+      </c>
+      <c r="C49" s="3">
+        <v>10.7713</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>30</v>
+      </c>
+      <c r="C50" s="3">
+        <v>10.771100000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>31</v>
+      </c>
+      <c r="C51" s="3">
+        <v>10.769500000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>32</v>
+      </c>
+      <c r="C52" s="3">
+        <v>10.767300000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>33</v>
+      </c>
+      <c r="C53" s="3">
+        <v>10.7666</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>34</v>
+      </c>
+      <c r="C54" s="3">
+        <v>10.7659</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>35</v>
+      </c>
+      <c r="C55" s="3">
+        <v>10.7646</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>36</v>
+      </c>
+      <c r="C56" s="3">
+        <v>10.764799999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>37</v>
+      </c>
+      <c r="C57" s="3">
+        <v>10.7613</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>38</v>
+      </c>
+      <c r="C58" s="3">
+        <v>10.760300000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>39</v>
+      </c>
+      <c r="C59" s="3">
+        <v>10.7582</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>40</v>
+      </c>
+      <c r="C60" s="3">
+        <v>10.7569</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="3">
-        <v>10.7758</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="2">
-        <v>27</v>
-      </c>
-      <c r="C50" s="3">
-        <v>10.7742</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="2">
+      <c r="C63" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="3">
-        <v>10.773199999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="2">
+      <c r="D63" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="3">
-        <v>10.7713</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="2">
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="5">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1">
+        <v>9.78125</v>
+      </c>
+      <c r="D64" s="1">
+        <v>10.829000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="5">
+        <v>20</v>
+      </c>
+      <c r="C65" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>10.7867</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="5">
         <v>30</v>
       </c>
-      <c r="C53" s="3">
-        <v>10.771100000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="2">
-        <v>31</v>
-      </c>
-      <c r="C54" s="3">
-        <v>10.769500000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="2">
-        <v>32</v>
-      </c>
-      <c r="C55" s="3">
-        <v>10.767300000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="2">
-        <v>33</v>
-      </c>
-      <c r="C56" s="3">
-        <v>10.7666</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
-        <v>34</v>
-      </c>
-      <c r="C57" s="3">
-        <v>10.7659</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="2">
-        <v>35</v>
-      </c>
-      <c r="C58" s="3">
-        <v>10.7646</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="2">
-        <v>36</v>
-      </c>
-      <c r="C59" s="3">
-        <v>10.764799999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="2">
-        <v>37</v>
-      </c>
-      <c r="C60" s="3">
-        <v>10.7613</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="2">
-        <v>38</v>
-      </c>
-      <c r="C61" s="3">
-        <v>10.760300000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="2">
-        <v>39</v>
-      </c>
-      <c r="C62" s="3">
-        <v>10.7582</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="2">
+      <c r="C66" s="1">
+        <v>10.5313</v>
+      </c>
+      <c r="D66" s="1">
+        <v>10.7643</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="5">
         <v>40</v>
       </c>
-      <c r="C63" s="3">
-        <v>10.7569</v>
+      <c r="C67" s="1">
+        <v>11.1875</v>
+      </c>
+      <c r="D67" s="1">
+        <v>10.750999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="5">
+        <v>50</v>
+      </c>
+      <c r="C68" s="1">
+        <v>11.4063</v>
+      </c>
+      <c r="D68" s="1">
+        <v>10.747299999999999</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>34</v>
+      <c r="B69" s="5">
+        <v>60</v>
+      </c>
+      <c r="C69" s="1">
+        <v>11.2813</v>
+      </c>
+      <c r="D69" s="1">
+        <v>10.738899999999999</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="5">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C70" s="1">
-        <v>9.78125</v>
+        <v>11.9063</v>
       </c>
       <c r="D70" s="1">
-        <v>10.829000000000001</v>
+        <v>10.735799999999999</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="5">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C71" s="1">
-        <v>10.5</v>
+        <v>11.4375</v>
       </c>
       <c r="D71" s="1">
-        <v>10.7867</v>
+        <v>10.730600000000001</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="5">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C72" s="1">
-        <v>10.5313</v>
+        <v>12.0938</v>
       </c>
       <c r="D72" s="1">
-        <v>10.7643</v>
+        <v>10.7301</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="5">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C73" s="1">
-        <v>11.1875</v>
+        <v>11.9063</v>
       </c>
       <c r="D73" s="1">
-        <v>10.750999999999999</v>
+        <v>10.725300000000001</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="5">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C74" s="1">
-        <v>11.4063</v>
+        <v>11.9688</v>
       </c>
       <c r="D74" s="1">
-        <v>10.747299999999999</v>
+        <v>10.720800000000001</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C75" s="1">
-        <v>11.2813</v>
+        <v>13</v>
       </c>
       <c r="D75" s="1">
-        <v>10.738899999999999</v>
+        <v>10.718999999999999</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="5">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C76" s="1">
-        <v>11.9063</v>
+        <v>12.4063</v>
       </c>
       <c r="D76" s="1">
-        <v>10.735799999999999</v>
+        <v>10.7189</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="5">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C77" s="1">
-        <v>11.4375</v>
+        <v>12.9375</v>
       </c>
       <c r="D77" s="1">
-        <v>10.730600000000001</v>
+        <v>10.718400000000001</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="5">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C78" s="1">
-        <v>12.0938</v>
+        <v>12.7813</v>
       </c>
       <c r="D78" s="1">
-        <v>10.7301</v>
+        <v>10.7157</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="5">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C79" s="1">
-        <v>11.9063</v>
+        <v>12.5938</v>
       </c>
       <c r="D79" s="1">
-        <v>10.725300000000001</v>
+        <v>10.712999999999999</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="5">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="C80" s="1">
-        <v>11.9688</v>
+        <v>12.375</v>
       </c>
       <c r="D80" s="1">
-        <v>10.720800000000001</v>
+        <v>10.710900000000001</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="5">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C81" s="1">
-        <v>13</v>
+        <v>12.7813</v>
       </c>
       <c r="D81" s="1">
-        <v>10.718999999999999</v>
+        <v>10.711399999999999</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="5">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C82" s="1">
-        <v>12.4063</v>
+        <v>12.5313</v>
       </c>
       <c r="D82" s="1">
-        <v>10.7189</v>
+        <v>10.7073</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="5">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="C83" s="1">
-        <v>12.9375</v>
+        <v>13.0313</v>
       </c>
       <c r="D83" s="1">
-        <v>10.718400000000001</v>
+        <v>10.704700000000001</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="5">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="C84" s="1">
-        <v>12.7813</v>
+        <v>12.875</v>
       </c>
       <c r="D84" s="1">
-        <v>10.7157</v>
+        <v>10.700799999999999</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="5">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C85" s="1">
-        <v>12.5938</v>
+        <v>12.7188</v>
       </c>
       <c r="D85" s="1">
-        <v>10.712999999999999</v>
+        <v>10.699199999999999</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="5">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="C86" s="1">
-        <v>12.375</v>
+        <v>12.5</v>
       </c>
       <c r="D86" s="1">
-        <v>10.710900000000001</v>
+        <v>10.696400000000001</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="5">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C87" s="1">
-        <v>12.7813</v>
+        <v>13.0938</v>
       </c>
       <c r="D87" s="1">
-        <v>10.711399999999999</v>
+        <v>10.6951</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="5">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="C88" s="1">
-        <v>12.5313</v>
+        <v>12.875</v>
       </c>
       <c r="D88" s="1">
-        <v>10.7073</v>
+        <v>10.6937</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="5">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="C89" s="1">
-        <v>13.0313</v>
+        <v>13.0625</v>
       </c>
       <c r="D89" s="1">
-        <v>10.704700000000001</v>
+        <v>10.691800000000001</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="5">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="C90" s="1">
-        <v>12.875</v>
+        <v>13</v>
       </c>
       <c r="D90" s="1">
-        <v>10.700799999999999</v>
+        <v>10.6897</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="5">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="C91" s="1">
-        <v>12.7188</v>
+        <v>13</v>
       </c>
       <c r="D91" s="1">
-        <v>10.699199999999999</v>
+        <v>10.6897</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="5">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="C92" s="1">
-        <v>12.5</v>
+        <v>12.8438</v>
       </c>
       <c r="D92" s="1">
-        <v>10.696400000000001</v>
+        <v>10.6883</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="5">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C93" s="1">
-        <v>13.0938</v>
+        <v>12.9688</v>
       </c>
       <c r="D93" s="1">
-        <v>10.6951</v>
+        <v>10.6846</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="5">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="C94" s="1">
-        <v>12.875</v>
+        <v>12.6875</v>
       </c>
       <c r="D94" s="1">
-        <v>10.6937</v>
+        <v>10.6836</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="5">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="C95" s="1">
-        <v>13.0625</v>
+        <v>13.25</v>
       </c>
       <c r="D95" s="1">
-        <v>10.691800000000001</v>
+        <v>10.681800000000001</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="5">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="C96" s="1">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="D96" s="1">
-        <v>10.6897</v>
+        <v>10.677899999999999</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="5">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="C97" s="1">
-        <v>13</v>
+        <v>13.1875</v>
       </c>
       <c r="D97" s="1">
-        <v>10.6897</v>
+        <v>10.6738</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="5">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="C98" s="1">
-        <v>12.8438</v>
+        <v>13</v>
       </c>
       <c r="D98" s="1">
-        <v>10.6883</v>
+        <v>10.6717</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="5">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="C99" s="1">
-        <v>12.9688</v>
+        <v>12.8438</v>
       </c>
       <c r="D99" s="1">
-        <v>10.6846</v>
+        <v>10.670500000000001</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="5">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="C100" s="1">
-        <v>12.6875</v>
+        <v>12.9063</v>
       </c>
       <c r="D100" s="1">
-        <v>10.6836</v>
+        <v>10.6684</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="5">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="C101" s="1">
-        <v>13.25</v>
+        <v>13.125</v>
       </c>
       <c r="D101" s="1">
-        <v>10.681800000000001</v>
+        <v>10.666499999999999</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="5">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="C102" s="1">
-        <v>12.8125</v>
+        <v>13.1875</v>
       </c>
       <c r="D102" s="1">
-        <v>10.677899999999999</v>
+        <v>10.663600000000001</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="5">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="C103" s="1">
-        <v>13.1875</v>
+        <v>13.5313</v>
       </c>
       <c r="D103" s="1">
-        <v>10.6738</v>
+        <v>10.6624</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="5">
-        <v>350</v>
-      </c>
-      <c r="C104" s="1">
-        <v>13</v>
-      </c>
-      <c r="D104" s="1">
-        <v>10.6717</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="5">
-        <v>360</v>
-      </c>
-      <c r="C105" s="1">
-        <v>12.8438</v>
-      </c>
-      <c r="D105" s="1">
-        <v>10.670500000000001</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="5">
-        <v>370</v>
-      </c>
-      <c r="C106" s="1">
-        <v>12.9063</v>
-      </c>
-      <c r="D106" s="1">
-        <v>10.6684</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="5">
-        <v>380</v>
-      </c>
-      <c r="C107" s="1">
-        <v>13.125</v>
-      </c>
-      <c r="D107" s="1">
-        <v>10.666499999999999</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="5">
-        <v>390</v>
-      </c>
-      <c r="C108" s="1">
-        <v>13.1875</v>
-      </c>
-      <c r="D108" s="1">
-        <v>10.663600000000001</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="5">
-        <v>400</v>
-      </c>
-      <c r="C109" s="1">
-        <v>13.5313</v>
-      </c>
-      <c r="D109" s="1">
-        <v>10.6624</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="5">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="5">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="5">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" s="5">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" s="5">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" s="5">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" s="5">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" s="5">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" s="5">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="5">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="5">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" s="5">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" s="5">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" s="5">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="5">
-        <v>550</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="5">
-        <v>560</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="5">
-        <v>570</v>
-      </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="5">
-        <v>580</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="5">
-        <v>590</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <f>120/B127</f>
+        <v>40</v>
+      </c>
+      <c r="B127" s="2">
+        <v>3</v>
+      </c>
+      <c r="C127" s="1">
+        <v>10.6797</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <f t="shared" ref="A127:A140" si="1">120/B128</f>
+        <v>30</v>
+      </c>
+      <c r="B128" s="2">
+        <v>4</v>
+      </c>
+      <c r="C128" s="1">
+        <v>10.6106</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="5">
-        <v>600</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
+      <c r="A129" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B129" s="2">
+        <v>5</v>
+      </c>
+      <c r="C129" s="1">
+        <v>10.599500000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B130" s="2">
+        <v>6</v>
+      </c>
+      <c r="C130" s="1">
+        <v>10.552</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B131" s="2">
+        <v>8</v>
+      </c>
+      <c r="C131" s="1">
+        <v>10.6229</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B132" s="7">
+        <v>10</v>
+      </c>
+      <c r="C132" s="8">
+        <v>10.6547</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B133" s="7">
+        <v>12</v>
+      </c>
+      <c r="C133" s="8">
+        <v>10.604900000000001</v>
+      </c>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B134" s="2">
+        <v>15</v>
+      </c>
+      <c r="C134" s="1">
+        <v>10.706799999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B135" s="2">
+        <v>20</v>
+      </c>
+      <c r="C135" s="1">
+        <v>10.6731</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>36</v>
+      <c r="A136" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B136" s="2">
+        <v>24</v>
+      </c>
+      <c r="C136" s="1">
+        <v>10.720700000000001</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <f t="shared" ref="A137:A150" si="1">120/B137</f>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B137" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C137" s="1">
-        <v>11.0215</v>
+        <v>10.7133</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B138" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C138" s="1">
-        <v>10.9779</v>
+        <v>10.6974</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B139" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C139" s="1">
-        <v>10.9414</v>
+        <v>10.6996</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B140" s="2">
+        <v>120</v>
+      </c>
+      <c r="C140" s="1">
+        <v>10.722799999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="2">
         <v>6</v>
       </c>
-      <c r="C140" s="1">
-        <v>10.906499999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B141" s="2">
-        <v>8</v>
-      </c>
-      <c r="C141" s="1">
-        <v>10.9177</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="7">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="2">
         <v>12</v>
       </c>
-      <c r="B142" s="7">
-        <v>10</v>
-      </c>
-      <c r="C142" s="8">
-        <v>10.880599999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="7">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B143" s="7">
-        <v>12</v>
-      </c>
-      <c r="C143" s="8">
-        <v>10.8475</v>
-      </c>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B144" s="2">
-        <v>15</v>
-      </c>
-      <c r="C144" s="1">
-        <v>10.8245</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B145" s="2">
-        <v>20</v>
-      </c>
-      <c r="C145" s="1">
-        <v>10.7918</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="2">
         <v>24</v>
       </c>
-      <c r="C146" s="1">
-        <v>10.7828</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="2">
         <v>30</v>
       </c>
-      <c r="C147" s="1">
-        <v>10.7805</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="2">
-        <v>40</v>
-      </c>
-      <c r="C148" s="1">
-        <v>10.749000000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="2">
         <v>60</v>
       </c>
-      <c r="C149" s="1">
-        <v>10.7256</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B150" s="2">
-        <v>120</v>
-      </c>
-      <c r="C150" s="1">
-        <v>10.722799999999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="2">
-        <v>6</v>
-      </c>
-      <c r="C156" s="1">
-        <v>14.1816</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="2">
-        <v>12</v>
-      </c>
-      <c r="C157" s="1">
-        <v>14.7013</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="2">
-        <v>18</v>
-      </c>
-      <c r="C158" s="1">
-        <v>14.963200000000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="2">
-        <v>24</v>
-      </c>
-      <c r="C159" s="1">
-        <v>15.0404</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="2">
-        <v>30</v>
-      </c>
-      <c r="C160" s="1">
-        <v>15.040699999999999</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="2">
-        <v>36</v>
-      </c>
-      <c r="C161" s="1">
-        <v>15.138400000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="2">
-        <v>42</v>
-      </c>
-      <c r="C162" s="1">
-        <v>15.087999999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="2">
-        <v>48</v>
-      </c>
-      <c r="C163" s="1">
-        <v>15.1966</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="2">
-        <v>54</v>
-      </c>
-      <c r="C164" s="1">
-        <v>15.038399999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="2">
-        <v>60</v>
-      </c>
-      <c r="C165" s="1">
-        <v>15.4655</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="2">
-        <v>6</v>
-      </c>
-      <c r="C168" s="1">
-        <v>14.543699999999999</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="2">
-        <v>12</v>
-      </c>
-      <c r="C169" s="1">
-        <v>14.991099999999999</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="2">
-        <v>18</v>
-      </c>
-      <c r="C170" s="1">
-        <v>15.2288</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="2">
-        <v>24</v>
-      </c>
-      <c r="C171" s="1">
-        <v>15.4505</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="2">
-        <v>30</v>
-      </c>
-      <c r="C172" s="1">
-        <v>15.6393</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="2">
-        <v>36</v>
-      </c>
-      <c r="C173" s="1">
-        <v>15.9377</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="2">
-        <v>42</v>
-      </c>
-      <c r="C174" s="1">
-        <v>15.9099</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="2">
-        <v>48</v>
-      </c>
-      <c r="C175" s="1">
-        <v>15.8055</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="2">
-        <v>54</v>
-      </c>
-      <c r="C176" s="1">
-        <v>15.937900000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="2">
-        <v>60</v>
-      </c>
-      <c r="C177" s="1">
-        <v>16.123799999999999</v>
-      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+      <c r="C157" s="4"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015745" bottom="1.1437007874015745" header="0.74999999999999989" footer="0.74999999999999989"/>

--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Lp</t>
   </si>
@@ -116,6 +116,12 @@
   <si>
     <t>minLsr z podziałem</t>
   </si>
+  <si>
+    <t>r 1:1</t>
+  </si>
+  <si>
+    <t>r 2:1</t>
+  </si>
 </sst>
 </file>
 
@@ -203,11 +209,11 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -541,11 +547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1900213871"/>
-        <c:axId val="1900213455"/>
+        <c:axId val="279280640"/>
+        <c:axId val="276557184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1900213455"/>
+        <c:axId val="276557184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,12 +592,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1900213871"/>
+        <c:crossAx val="279280640"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1900213871"/>
+        <c:axId val="279280640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +638,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1900213455"/>
+        <c:crossAx val="276557184"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -667,31 +673,7 @@
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>b &lt; 5; 16 &gt;</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1024,6 +1006,66 @@
                 <c:pt idx="39">
                   <c:v>13.5313</c:v>
                 </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>12.923400000000001</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>13.1023</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>13.203200000000001</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>13.154299999999999</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>13.526400000000001</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>13.3253</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>13.254300000000001</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>13.239000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>13.2188</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>13.2805</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>13.2843</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>13.355399999999999</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>13.623200000000001</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>13.125</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>13.4282</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>13.212300000000001</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>13.2453</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>13.2683</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>13.2813</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1042,11 +1084,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1900217199"/>
-        <c:axId val="1900218863"/>
+        <c:axId val="248923264"/>
+        <c:axId val="248913280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1900218863"/>
+        <c:axId val="248913280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,6 +1103,25 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1200" b="0" i="1"/>
+                  <a:t>b</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1087,12 +1148,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1900217199"/>
+        <c:crossAx val="248923264"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1900217199"/>
+        <c:axId val="248923264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,6 +1168,25 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1200" b="0" i="1"/>
+                  <a:t>r</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1133,7 +1213,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1900218863"/>
+        <c:crossAx val="248913280"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1168,33 +1248,19 @@
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>minLsr &lt; 5; 16 &gt;</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3973937374698917E-2"/>
+          <c:y val="3.6187645765689266E-2"/>
+          <c:w val="0.91879420093365838"/>
+          <c:h val="0.85047195569394696"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1526,6 +1592,66 @@
                 <c:pt idx="39">
                   <c:v>10.6624</c:v>
                 </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>10.661799999999999</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>10.659800000000001</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>10.6576</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>10.6548</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>10.6539</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>10.653700000000001</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>10.6534</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>10.653</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>10.652799999999999</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>10.6526</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>10.651199999999999</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>10.6495</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>10.647</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>10.6462</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>10.645300000000001</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>10.644500000000001</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>10.6441</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>10.6432</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>10.6425</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>10.6419</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1544,11 +1670,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1900212623"/>
-        <c:axId val="1900218447"/>
+        <c:axId val="248945280"/>
+        <c:axId val="248943744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1900218447"/>
+        <c:axId val="248943744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,6 +1689,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1200" b="1" i="1" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>śr</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1200" b="0" i="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1589,12 +1743,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1900212623"/>
+        <c:crossAx val="248945280"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1900212623"/>
+        <c:axId val="248945280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,6 +1763,33 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1200" b="0" i="1"/>
+                  <a:t>r</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50565098870667646"/>
+              <c:y val="0.9362838951339828"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1635,7 +1816,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1900218447"/>
+        <c:crossAx val="248943744"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1677,6 +1858,377 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$127:$B$140</c:f>
+              <c:numCache>
+                <c:formatCode>[$-415]General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$127:$C$140</c:f>
+              <c:numCache>
+                <c:formatCode>[$-415]General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10.6797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.6106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.599500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.6229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.6547</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.604900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.706799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.6731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.720700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.7133</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.6974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.6996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.722799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15F3-40FE-8B6D-CB51A71EC63A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="273027456"/>
+        <c:axId val="273028992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="273027456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1200" b="0" i="1"/>
+                  <a:t>r</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273028992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="273028992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1200" b="1" i="1" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>śr</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273027456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1698,12 +2250,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>min</a:t>
+              <a:t>r</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> Lsr z podziałem k</a:t>
+              <a:t> 1:1</a:t>
             </a:r>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1741,7 +2294,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1760,110 +2313,86 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$127:$B$140</c:f>
+              <c:f>Arkusz1!$B$144:$B$153</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$127:$C$140</c:f>
+              <c:f>Arkusz1!$C$144:$C$153</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.6797</c:v>
+                  <c:v>11.358700000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.6106</c:v>
+                  <c:v>11.074400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.599500000000001</c:v>
+                  <c:v>10.9778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.552</c:v>
+                  <c:v>10.9153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.6229</c:v>
+                  <c:v>10.9056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6547</c:v>
+                  <c:v>10.9185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.604900000000001</c:v>
+                  <c:v>10.8698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.706799999999999</c:v>
+                  <c:v>10.8628</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.6731</c:v>
+                  <c:v>10.838699999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.720700000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.7133</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.6974</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.6996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.722799999999999</c:v>
+                  <c:v>10.8195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-15F3-40FE-8B6D-CB51A71EC63A}"/>
+              <c16:uniqueId val="{00000000-2A04-4C37-B8CC-E9C07ED80F8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1875,11 +2404,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1133957824"/>
-        <c:axId val="1133956576"/>
+        <c:axId val="1634242287"/>
+        <c:axId val="1634230639"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1133957824"/>
+        <c:axId val="1634242287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,12 +2465,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1133956576"/>
+        <c:crossAx val="1634230639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1133956576"/>
+        <c:axId val="1634230639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +2527,368 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1133957824"/>
+        <c:crossAx val="1634242287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>r</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t> 2:1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$144:$B$153</c:f>
+              <c:numCache>
+                <c:formatCode>[$-415]General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$144:$D$153</c:f>
+              <c:numCache>
+                <c:formatCode>[$-415]General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.051399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.954700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.950200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.9031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.887600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.821999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.8347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.815099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.8095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BE4-41F0-93BA-39E0A1E5365A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1637919775"/>
+        <c:axId val="1637906463"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1637919775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637906463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1637906463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637919775"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2087,7 +2977,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2682,16 +4128,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>993500</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>46382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1507435</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2705,6 +4151,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>670892</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>356152</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>96079</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546652</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>53010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2592457</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>129210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2976,10 +4482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AMJ167"/>
+  <dimension ref="A2:AMJ168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4293,141 +5799,221 @@
       <c r="B104" s="5">
         <v>410</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
+      <c r="C104" s="8">
+        <v>12.923400000000001</v>
+      </c>
+      <c r="D104" s="8">
+        <v>10.661799999999999</v>
+      </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="5">
         <v>420</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
+      <c r="C105" s="8">
+        <v>13.1023</v>
+      </c>
+      <c r="D105" s="8">
+        <v>10.659800000000001</v>
+      </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="5">
         <v>430</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
+      <c r="C106" s="8">
+        <v>13.203200000000001</v>
+      </c>
+      <c r="D106" s="8">
+        <v>10.6576</v>
+      </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="5">
         <v>440</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
+      <c r="C107" s="8">
+        <v>13.154299999999999</v>
+      </c>
+      <c r="D107" s="8">
+        <v>10.6548</v>
+      </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="5">
         <v>450</v>
       </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
+      <c r="C108" s="8">
+        <v>13.13</v>
+      </c>
+      <c r="D108" s="8">
+        <v>10.6539</v>
+      </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="5">
         <v>460</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
+      <c r="C109" s="8">
+        <v>13.526400000000001</v>
+      </c>
+      <c r="D109" s="8">
+        <v>10.653700000000001</v>
+      </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="5">
         <v>470</v>
       </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
+      <c r="C110" s="8">
+        <v>13.3253</v>
+      </c>
+      <c r="D110" s="8">
+        <v>10.6534</v>
+      </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="5">
         <v>480</v>
       </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
+      <c r="C111" s="8">
+        <v>13.254300000000001</v>
+      </c>
+      <c r="D111" s="8">
+        <v>10.653</v>
+      </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="5">
         <v>490</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
+      <c r="C112" s="8">
+        <v>13.239000000000001</v>
+      </c>
+      <c r="D112" s="8">
+        <v>10.652799999999999</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" s="5">
         <v>500</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
+      <c r="C113" s="8">
+        <v>13.2188</v>
+      </c>
+      <c r="D113" s="8">
+        <v>10.6526</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" s="5">
         <v>510</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
+      <c r="C114" s="8">
+        <v>13.2805</v>
+      </c>
+      <c r="D114" s="8">
+        <v>10.651199999999999</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" s="5">
         <v>520</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
+      <c r="C115" s="8">
+        <v>13.2843</v>
+      </c>
+      <c r="D115" s="8">
+        <v>10.6495</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" s="5">
         <v>530</v>
       </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
+      <c r="C116" s="8">
+        <v>13.355399999999999</v>
+      </c>
+      <c r="D116" s="8">
+        <v>10.647</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" s="5">
         <v>540</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
+      <c r="C117" s="8">
+        <v>13.623200000000001</v>
+      </c>
+      <c r="D117" s="8">
+        <v>10.6462</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" s="5">
         <v>550</v>
       </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
+      <c r="C118" s="8">
+        <v>13.125</v>
+      </c>
+      <c r="D118" s="8">
+        <v>10.645300000000001</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="5">
         <v>560</v>
       </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
+      <c r="C119" s="8">
+        <v>13.4282</v>
+      </c>
+      <c r="D119" s="8">
+        <v>10.644500000000001</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="5">
         <v>570</v>
       </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
+      <c r="C120" s="8">
+        <v>13.212300000000001</v>
+      </c>
+      <c r="D120" s="8">
+        <v>10.6441</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" s="5">
         <v>580</v>
       </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
+      <c r="C121" s="8">
+        <v>13.2453</v>
+      </c>
+      <c r="D121" s="8">
+        <v>10.6432</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" s="5">
         <v>590</v>
       </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
+      <c r="C122" s="8">
+        <v>13.2683</v>
+      </c>
+      <c r="D122" s="8">
+        <v>10.6425</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" s="5">
         <v>600</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
+      <c r="C123" s="8">
+        <v>13.2813</v>
+      </c>
+      <c r="D123" s="8">
+        <v>10.6419</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
@@ -4454,7 +6040,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <f t="shared" ref="A127:A140" si="1">120/B128</f>
+        <f t="shared" ref="A128:A140" si="1">120/B128</f>
         <v>30</v>
       </c>
       <c r="B128" s="2">
@@ -4501,26 +6087,26 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="7">
+      <c r="A132" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="6">
         <v>10</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C132" s="7">
         <v>10.6547</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="7">
+      <c r="A133" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="6">
         <v>12</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="7">
         <v>10.604900000000001</v>
       </c>
       <c r="D133" s="2"/>
@@ -4613,73 +6199,140 @@
       <c r="B143" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C143" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="1">
+        <v>11.358700000000001</v>
+      </c>
+      <c r="D144" s="1">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="2">
         <v>12</v>
       </c>
-      <c r="C145" s="4"/>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="1">
+        <v>11.074400000000001</v>
+      </c>
+      <c r="D145" s="4">
+        <v>11.051399999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="2">
+        <v>18</v>
+      </c>
+      <c r="C146" s="1">
+        <v>10.9778</v>
+      </c>
+      <c r="D146" s="4">
+        <v>10.954700000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="2">
+      <c r="C147" s="1">
+        <v>10.9153</v>
+      </c>
+      <c r="D147" s="1">
+        <v>10.950200000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="2">
+      <c r="C148" s="1">
+        <v>10.9056</v>
+      </c>
+      <c r="D148" s="1">
+        <v>10.9031</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="2">
+      <c r="C149" s="1">
+        <v>10.9185</v>
+      </c>
+      <c r="D149" s="1">
+        <v>10.887600000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="2">
+      <c r="C150" s="1">
+        <v>10.8698</v>
+      </c>
+      <c r="D150" s="1">
+        <v>10.821999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="2">
+      <c r="C151" s="1">
+        <v>10.8628</v>
+      </c>
+      <c r="D151" s="1">
+        <v>10.8347</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="2">
+      <c r="C152" s="1">
+        <v>10.838699999999999</v>
+      </c>
+      <c r="D152" s="1">
+        <v>10.815099999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="1">
+        <v>10.8195</v>
+      </c>
+      <c r="D153" s="1">
+        <v>10.8095</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="2"/>
-      <c r="C157" s="4"/>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="2"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="4"/>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
@@ -4703,10 +6356,13 @@
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
     </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015745" bottom="1.1437007874015745" header="0.74999999999999989" footer="0.74999999999999989"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tabela.xlsx
+++ b/Tabela.xlsx
@@ -117,10 +117,10 @@
     <t>minLsr z podziałem</t>
   </si>
   <si>
-    <t>r 1:1</t>
+    <t>entropia r 1:1</t>
   </si>
   <si>
-    <t>r 2:1</t>
+    <t>entropia r 2:1</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -566,6 +565,32 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>średnie H(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -600,6 +625,7 @@
         <c:axId val="279280640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -612,6 +638,24 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="0" i="1"/>
+                  <a:t>r</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1119,7 +1163,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
@@ -1156,6 +1199,7 @@
         <c:axId val="248923264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1184,7 +1228,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
@@ -1696,16 +1739,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="0" i="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL" sz="1200" b="1" i="1" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="pl-PL" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>L</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pl-PL" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
+                  <a:rPr lang="pl-PL" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>śr</a:t>
@@ -1714,7 +1757,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
@@ -1751,6 +1793,7 @@
         <c:axId val="248945280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1858,15 +1901,74 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>stereo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>r 1:1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1881,50 +1983,68 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$127:$B$140</c:f>
+              <c:f>Arkusz1!$B$144:$B$163</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
@@ -1932,59 +2052,240 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$127:$C$140</c:f>
+              <c:f>Arkusz1!$C$144:$C$163</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>10.6797</c:v>
+                  <c:v>10.945</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.6106</c:v>
+                  <c:v>10.841200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.599500000000001</c:v>
+                  <c:v>10.815799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.552</c:v>
+                  <c:v>10.7966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.6229</c:v>
+                  <c:v>10.786099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.6547</c:v>
+                  <c:v>10.773899999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.604900000000001</c:v>
+                  <c:v>10.764099999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.706799999999999</c:v>
+                  <c:v>10.757199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.6731</c:v>
+                  <c:v>10.751099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.720700000000001</c:v>
+                  <c:v>10.747299999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.7133</c:v>
+                  <c:v>10.7415</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.6974</c:v>
+                  <c:v>10.7371</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.6996</c:v>
+                  <c:v>10.7311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.722799999999999</c:v>
+                  <c:v>10.728899999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.726599999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.7242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.722099999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.7189</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.7172</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.716900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-15F3-40FE-8B6D-CB51A71EC63A}"/>
+              <c16:uniqueId val="{00000000-2A04-4C37-B8CC-E9C07ED80F8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>r 2:1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$144:$B$163</c:f>
+              <c:numCache>
+                <c:formatCode>[$-415]General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$144:$D$163</c:f>
+              <c:numCache>
+                <c:formatCode>[$-415]General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10.9438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.8192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.801399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.793100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.7743</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.761200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.752000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.745900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.740399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.738899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.736499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.7355</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.7324</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.731</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.7294</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.7265</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.722799999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.7211</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.715299999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.7103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000004A-910F-4BAC-82A6-4A5A28290687}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1996,13 +2297,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="273027456"/>
-        <c:axId val="273028992"/>
+        <c:axId val="1634242287"/>
+        <c:axId val="1634230639"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="273027456"/>
+        <c:axId val="1634242287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2023,21 +2325,63 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL" sz="1200" b="0" i="1"/>
+                  <a:rPr lang="pl-PL" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>r</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46655446194225719"/>
+              <c:y val="0.90820329277022194"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2076,12 +2420,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273028992"/>
+        <c:crossAx val="1634230639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="273028992"/>
+        <c:axId val="1634230639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,30 +2448,56 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL" sz="1200" b="1" i="1" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
+                  <a:rPr lang="pl-PL" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
                   </a:rPr>
-                  <a:t>L</a:t>
+                  <a:t>średnie H(s)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pl-PL" sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="-25000">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>śr</a:t>
-                </a:r>
-                <a:endParaRPr lang="pl-PL" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2166,7 +2536,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273027456"/>
+        <c:crossAx val="1634242287"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2178,6 +2548,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2250,17 +2652,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>r</a:t>
+              <a:t>Lsr</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> 1:1</a:t>
+              <a:t> w stosunku do rzędu predykcji</a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2313,78 +2714,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$144:$B$153</c:f>
+              <c:f>Arkusz1!$B$127:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$C$144:$C$153</c:f>
+              <c:f>Arkusz1!$C$127:$C$140</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>11.358700000000001</c:v>
+                  <c:v>10.6797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.074400000000001</c:v>
+                  <c:v>10.6106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.9778</c:v>
+                  <c:v>10.599500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.9153</c:v>
+                  <c:v>10.552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.9056</c:v>
+                  <c:v>10.6229</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.9185</c:v>
+                  <c:v>10.6547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.8698</c:v>
+                  <c:v>10.604900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.8628</c:v>
+                  <c:v>10.706799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.838699999999999</c:v>
+                  <c:v>10.6731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.8195</c:v>
+                  <c:v>10.720700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.7133</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.6974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.6996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.722799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2392,7 +2817,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A04-4C37-B8CC-E9C07ED80F8D}"/>
+              <c16:uniqueId val="{00000000-D90F-4AB4-8EBC-F2C1A4CCB678}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2404,13 +2829,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1634242287"/>
-        <c:axId val="1634230639"/>
+        <c:axId val="75590159"/>
+        <c:axId val="75585167"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1634242287"/>
+        <c:axId val="75590159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2428,6 +2854,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>r</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2465,12 +2944,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1634230639"/>
+        <c:crossAx val="75585167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1634230639"/>
+        <c:axId val="75585167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,6 +2969,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1000" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Lśr</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2527,7 +3059,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1634242287"/>
+        <c:crossAx val="75590159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2610,18 +3142,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>r</a:t>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Lsr</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t> 2:1</a:t>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> w stosunku do podziału pliku</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26035411198600172"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2674,78 +3213,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$144:$B$153</c:f>
+              <c:f>Arkusz1!$A$127:$A$140</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>60</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$144:$D$153</c:f>
+              <c:f>Arkusz1!$C$127:$C$140</c:f>
               <c:numCache>
                 <c:formatCode>[$-415]General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>11.24</c:v>
+                  <c:v>10.6797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.051399999999999</c:v>
+                  <c:v>10.6106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.954700000000001</c:v>
+                  <c:v>10.599500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.950200000000001</c:v>
+                  <c:v>10.552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.9031</c:v>
+                  <c:v>10.6229</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.887600000000001</c:v>
+                  <c:v>10.6547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.821999999999999</c:v>
+                  <c:v>10.604900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.8347</c:v>
+                  <c:v>10.706799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.815099999999999</c:v>
+                  <c:v>10.6731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.8095</c:v>
+                  <c:v>10.720700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.7133</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.6974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.6996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.722799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2753,7 +3316,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0BE4-41F0-93BA-39E0A1E5365A}"/>
+              <c16:uniqueId val="{00000000-7303-4D7E-B27F-D4902360B576}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2765,13 +3328,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1637919775"/>
-        <c:axId val="1637906463"/>
+        <c:axId val="78889423"/>
+        <c:axId val="78882767"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1637919775"/>
+        <c:axId val="78889423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2789,6 +3353,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2826,12 +3443,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1637906463"/>
+        <c:crossAx val="78882767"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1637906463"/>
+        <c:axId val="78882767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,6 +3468,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" b="0" i="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Lśr</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="[$-415]General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2888,7 +3558,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1637919775"/>
+        <c:crossAx val="78889423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3017,6 +3687,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3534,6 +4244,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4129,19 +5355,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>993500</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>46382</xdr:rowOff>
+      <xdr:colOff>472109</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>61292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1507435</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>157369</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1979542</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4159,19 +5385,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>670892</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>19879</xdr:rowOff>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>356152</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>96079</xdr:rowOff>
+      <xdr:colOff>1971260</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>165653</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvPr id="8" name="Wykres 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4189,19 +5415,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>546652</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>53010</xdr:rowOff>
+      <xdr:colOff>2004390</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>16567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2592457</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>129210</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3147392</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Wykres 6"/>
+        <xdr:cNvPr id="9" name="Wykres 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4484,8 +5710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMJ168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="C142" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6211,10 +7437,10 @@
         <v>6</v>
       </c>
       <c r="C144" s="1">
-        <v>11.358700000000001</v>
+        <v>10.945</v>
       </c>
       <c r="D144" s="1">
-        <v>11.24</v>
+        <v>10.9438</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
@@ -6222,10 +7448,10 @@
         <v>12</v>
       </c>
       <c r="C145" s="1">
-        <v>11.074400000000001</v>
+        <v>10.841200000000001</v>
       </c>
       <c r="D145" s="4">
-        <v>11.051399999999999</v>
+        <v>10.8192</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
@@ -6233,10 +7459,10 @@
         <v>18</v>
       </c>
       <c r="C146" s="1">
-        <v>10.9778</v>
+        <v>10.815799999999999</v>
       </c>
       <c r="D146" s="4">
-        <v>10.954700000000001</v>
+        <v>10.801399999999999</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
@@ -6244,10 +7470,10 @@
         <v>24</v>
       </c>
       <c r="C147" s="1">
-        <v>10.9153</v>
+        <v>10.7966</v>
       </c>
       <c r="D147" s="1">
-        <v>10.950200000000001</v>
+        <v>10.793100000000001</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
@@ -6255,10 +7481,10 @@
         <v>30</v>
       </c>
       <c r="C148" s="1">
-        <v>10.9056</v>
+        <v>10.786099999999999</v>
       </c>
       <c r="D148" s="1">
-        <v>10.9031</v>
+        <v>10.7743</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
@@ -6266,10 +7492,10 @@
         <v>36</v>
       </c>
       <c r="C149" s="1">
-        <v>10.9185</v>
+        <v>10.773899999999999</v>
       </c>
       <c r="D149" s="1">
-        <v>10.887600000000001</v>
+        <v>10.761200000000001</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
@@ -6277,10 +7503,10 @@
         <v>42</v>
       </c>
       <c r="C150" s="1">
-        <v>10.8698</v>
+        <v>10.764099999999999</v>
       </c>
       <c r="D150" s="1">
-        <v>10.821999999999999</v>
+        <v>10.752000000000001</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
@@ -6288,10 +7514,10 @@
         <v>48</v>
       </c>
       <c r="C151" s="1">
-        <v>10.8628</v>
+        <v>10.757199999999999</v>
       </c>
       <c r="D151" s="1">
-        <v>10.8347</v>
+        <v>10.745900000000001</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
@@ -6299,10 +7525,10 @@
         <v>54</v>
       </c>
       <c r="C152" s="1">
-        <v>10.838699999999999</v>
+        <v>10.751099999999999</v>
       </c>
       <c r="D152" s="1">
-        <v>10.815099999999999</v>
+        <v>10.740399999999999</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
@@ -6310,53 +7536,135 @@
         <v>60</v>
       </c>
       <c r="C153" s="1">
-        <v>10.8195</v>
+        <v>10.747299999999999</v>
       </c>
       <c r="D153" s="1">
-        <v>10.8095</v>
+        <v>10.738899999999999</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="2"/>
+      <c r="B154" s="2">
+        <v>66</v>
+      </c>
+      <c r="C154" s="1">
+        <v>10.7415</v>
+      </c>
+      <c r="D154" s="1">
+        <v>10.736499999999999</v>
+      </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="2"/>
+      <c r="B155" s="2">
+        <v>72</v>
+      </c>
+      <c r="C155" s="1">
+        <v>10.7371</v>
+      </c>
+      <c r="D155" s="1">
+        <v>10.7355</v>
+      </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="2"/>
+      <c r="B156" s="2">
+        <v>78</v>
+      </c>
+      <c r="C156" s="1">
+        <v>10.7311</v>
+      </c>
+      <c r="D156" s="1">
+        <v>10.7324</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="2">
+        <v>84</v>
+      </c>
+      <c r="C157" s="1">
+        <v>10.728899999999999</v>
+      </c>
+      <c r="D157" s="1">
+        <v>10.731</v>
+      </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="2"/>
-      <c r="C158" s="4"/>
+      <c r="B158" s="2">
+        <v>90</v>
+      </c>
+      <c r="C158" s="4">
+        <v>10.726599999999999</v>
+      </c>
+      <c r="D158" s="1">
+        <v>10.7294</v>
+      </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="2"/>
+      <c r="B159" s="2">
+        <v>96</v>
+      </c>
+      <c r="C159" s="1">
+        <v>10.7242</v>
+      </c>
+      <c r="D159" s="1">
+        <v>10.7265</v>
+      </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="2"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="2"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="2"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="2"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="2">
+        <v>102</v>
+      </c>
+      <c r="C160" s="1">
+        <v>10.722099999999999</v>
+      </c>
+      <c r="D160" s="1">
+        <v>10.722799999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="2">
+        <v>108</v>
+      </c>
+      <c r="C161" s="1">
+        <v>10.7189</v>
+      </c>
+      <c r="D161" s="1">
+        <v>10.7211</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="2">
+        <v>114</v>
+      </c>
+      <c r="C162" s="1">
+        <v>10.7172</v>
+      </c>
+      <c r="D162" s="1">
+        <v>10.715299999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="2">
+        <v>120</v>
+      </c>
+      <c r="C163" s="1">
+        <v>10.716900000000001</v>
+      </c>
+      <c r="D163" s="1">
+        <v>10.7103</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
     </row>
   </sheetData>
